--- a/BackTest/2019-10-17 BackTest FNB.xlsx
+++ b/BackTest/2019-10-17 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>17.64705882352936</v>
+      </c>
       <c r="L12" t="n">
         <v>41.79000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.79999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.11111111111093</v>
+      </c>
       <c r="L13" t="n">
         <v>41.81</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-5.882352941176569</v>
+      </c>
       <c r="L14" t="n">
         <v>41.82000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.285714285714</v>
+      </c>
       <c r="L15" t="n">
         <v>41.81000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L16" t="n">
         <v>41.83000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>41.81000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333254</v>
+      </c>
       <c r="L18" t="n">
         <v>41.81000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>41.83000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.999999999999993</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>41.84</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.999999999999993</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>41.85</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>41.83</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.099999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>4.761904761904504</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>41.82000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.099999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>4.761904761904504</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>41.82000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>41.83</v>
@@ -1564,7 +1586,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>41.83</v>
@@ -1613,7 +1635,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.66666666666673</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>41.84</v>
@@ -1662,7 +1684,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>7.692307692307776</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>41.84999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L29" t="n">
         <v>41.86999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>41.86999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>41.86999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>41.88999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>41.90999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>41.92999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L35" t="n">
         <v>41.95</v>
@@ -2064,7 +2086,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L36" t="n">
         <v>41.98</v>
@@ -2115,7 +2137,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L37" t="n">
         <v>42</v>
@@ -2217,7 +2239,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
         <v>42.03000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>42.05000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>42.05000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
         <v>42.06000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>42.07000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>3.300000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>42.09000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>3.300000000000011</v>
       </c>
       <c r="K45" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>42.10000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K46" t="n">
-        <v>49.99999999999971</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L46" t="n">
         <v>42.13000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.600000000000009</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333294</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L47" t="n">
         <v>42.15000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>38.46153846153813</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L48" t="n">
         <v>42.18</v>
@@ -2727,7 +2749,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>14.28571428571443</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L49" t="n">
         <v>42.19</v>
@@ -2778,7 +2800,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.99999999999986</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L50" t="n">
         <v>42.13</v>
@@ -2829,7 +2851,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>-4.347826086956576</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L51" t="n">
         <v>42.12</v>
@@ -2880,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.04347826086946</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L52" t="n">
         <v>42.08</v>
@@ -2931,7 +2953,7 @@
         <v>5.900000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>-37.50000000000006</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L53" t="n">
         <v>41.95</v>
@@ -2982,7 +3004,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.78947368421055</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L54" t="n">
         <v>41.86999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K55" t="n">
-        <v>-18.91891891891898</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>41.78999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.78947368421055</v>
+        <v>-26.66666666666657</v>
       </c>
       <c r="L56" t="n">
         <v>41.7</v>
@@ -3135,7 +3157,7 @@
         <v>6.800000000000011</v>
       </c>
       <c r="K57" t="n">
-        <v>-20.00000000000007</v>
+        <v>-35.48387096774196</v>
       </c>
       <c r="L57" t="n">
         <v>41.59999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>7.000000000000007</v>
       </c>
       <c r="K58" t="n">
-        <v>-23.8095238095238</v>
+        <v>-35.48387096774196</v>
       </c>
       <c r="L58" t="n">
         <v>41.47</v>
@@ -3237,7 +3259,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>-18.18181818181829</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L59" t="n">
         <v>41.38</v>
@@ -3288,7 +3310,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>-18.18181818181829</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L60" t="n">
         <v>41.36</v>
@@ -3339,7 +3361,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.28571428571433</v>
+        <v>-18.18181818181841</v>
       </c>
       <c r="L61" t="n">
         <v>41.31</v>
@@ -3390,7 +3412,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-20.00000000000014</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L62" t="n">
         <v>41.27</v>
@@ -3441,7 +3463,7 @@
         <v>7.300000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>-17.07317073170741</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>41.33</v>
@@ -3492,7 +3514,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.07317073170741</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L64" t="n">
         <v>41.34</v>
@@ -3543,7 +3565,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.07317073170741</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>41.35000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K66" t="n">
-        <v>-19.99999999999993</v>
+        <v>42.85714285714373</v>
       </c>
       <c r="L66" t="n">
         <v>41.36000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K67" t="n">
-        <v>-17.94871794871785</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>41.39000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K68" t="n">
-        <v>-23.07692307692305</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
         <v>41.43000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-15.78947368421055</v>
+        <v>60</v>
       </c>
       <c r="L69" t="n">
         <v>41.46000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>3.225806451612947</v>
+        <v>60</v>
       </c>
       <c r="L70" t="n">
         <v>41.49000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>7.70000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.14285714285698</v>
+        <v>60</v>
       </c>
       <c r="L71" t="n">
         <v>41.52000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.142857142857216</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>41.54000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K73" t="n">
-        <v>23.80952380952371</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>41.53000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.66666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>41.51000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.49999999999972</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L75" t="n">
         <v>41.48000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K76" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>41.48000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.761904761904504</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L77" t="n">
         <v>41.44000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K78" t="n">
-        <v>5.263157894736921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>41.41000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.882352941176126</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>41.37</v>
@@ -4308,7 +4330,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>5.263157894736921</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L80" t="n">
         <v>41.35</v>
@@ -4359,7 +4381,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>5.263157894736921</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L81" t="n">
         <v>41.33</v>
@@ -4410,7 +4432,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>25.00000000000007</v>
+        <v>37.50000000000039</v>
       </c>
       <c r="L82" t="n">
         <v>41.36999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>21.73913043478263</v>
+        <v>37.50000000000039</v>
       </c>
       <c r="L83" t="n">
         <v>41.42999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>18.18181818181815</v>
+        <v>46.6666666666666</v>
       </c>
       <c r="L84" t="n">
         <v>41.48999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>13.04347826086946</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L85" t="n">
         <v>41.54999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>4.347826086956602</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L86" t="n">
         <v>41.55999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>4.347826086956602</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L87" t="n">
         <v>41.60999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K88" t="n">
-        <v>13.04347826086954</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L88" t="n">
         <v>41.66999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L89" t="n">
         <v>41.70999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>14.28571428571436</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L90" t="n">
         <v>41.77</v>
@@ -4869,7 +4891,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>17.24137931034496</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L91" t="n">
         <v>41.84</v>
@@ -4920,7 +4942,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>9.67741935483868</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L92" t="n">
         <v>41.83</v>
@@ -4971,7 +4993,7 @@
         <v>11.3</v>
       </c>
       <c r="K93" t="n">
-        <v>27.27272727272759</v>
+        <v>17.64705882352971</v>
       </c>
       <c r="L93" t="n">
         <v>41.86</v>
@@ -5022,7 +5044,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>31.42857142857166</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L94" t="n">
         <v>41.91</v>
@@ -5073,7 +5095,7 @@
         <v>11.8</v>
       </c>
       <c r="K95" t="n">
-        <v>40.54054054054067</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>42</v>
@@ -5124,7 +5146,7 @@
         <v>11.8</v>
       </c>
       <c r="K96" t="n">
-        <v>33.33333333333348</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>42.1</v>
@@ -5175,7 +5197,7 @@
         <v>12.1</v>
       </c>
       <c r="K97" t="n">
-        <v>37.49999999999991</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L97" t="n">
         <v>42.17</v>
@@ -5226,7 +5248,7 @@
         <v>12.2</v>
       </c>
       <c r="K98" t="n">
-        <v>39.39393939393934</v>
+        <v>42.85714285714247</v>
       </c>
       <c r="L98" t="n">
         <v>42.23999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>12.2</v>
       </c>
       <c r="K99" t="n">
-        <v>39.39393939393934</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L99" t="n">
         <v>42.33</v>
@@ -5328,7 +5350,7 @@
         <v>12.3</v>
       </c>
       <c r="K100" t="n">
-        <v>31.24999999999997</v>
+        <v>17.64705882352907</v>
       </c>
       <c r="L100" t="n">
         <v>42.36999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>12.7</v>
       </c>
       <c r="K101" t="n">
-        <v>16.6666666666667</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L101" t="n">
         <v>42.35999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>12.8</v>
       </c>
       <c r="K102" t="n">
-        <v>6.250000000000083</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L102" t="n">
         <v>42.38999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>3.03030303030307</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L103" t="n">
         <v>42.36999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>5.882352941176544</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L104" t="n">
         <v>42.34</v>
@@ -5583,7 +5605,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090909207</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L105" t="n">
         <v>42.28</v>
@@ -5634,7 +5656,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>24.32432432432422</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L106" t="n">
         <v>42.27</v>
@@ -5685,7 +5707,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>24.32432432432422</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L107" t="n">
         <v>42.29000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>10.00000000000011</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L108" t="n">
         <v>42.26000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>14.2</v>
       </c>
       <c r="K109" t="n">
-        <v>21.951219512195</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L109" t="n">
         <v>42.26000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>14.5</v>
       </c>
       <c r="K110" t="n">
-        <v>5.000000000000053</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L110" t="n">
         <v>42.24000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>4.999999999999885</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L111" t="n">
         <v>42.27000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>10.52631578947384</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L112" t="n">
         <v>42.28000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>2.857142857142707</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L113" t="n">
         <v>42.31000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>-8.571428571428525</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>42.31000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-18.75000000000015</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L115" t="n">
         <v>42.31000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>15.09999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>-15.15151515151523</v>
+        <v>-25.00000000000033</v>
       </c>
       <c r="L116" t="n">
         <v>42.27</v>
@@ -6195,7 +6217,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.67741935483868</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L117" t="n">
         <v>42.22000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.250000000000139</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L118" t="n">
         <v>42.23</v>
@@ -6297,7 +6319,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-6.250000000000139</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L119" t="n">
         <v>42.21000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>15.49999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>-6.249999999999931</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L120" t="n">
         <v>42.21000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>15.49999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>7.142857142857324</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>42.2</v>
@@ -6450,7 +6472,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.44827586206905</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>42.18000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.666666666666825</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L123" t="n">
         <v>42.13000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>-16.12903225806469</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L124" t="n">
         <v>42.08000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>16.19999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>-18.75000000000023</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L125" t="n">
         <v>42.02</v>
@@ -6654,7 +6676,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.555555555555687</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L126" t="n">
         <v>42.04000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>-12.82051282051294</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L127" t="n">
         <v>42.04000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>-17.07317073170753</v>
+        <v>-30.76923076923073</v>
       </c>
       <c r="L128" t="n">
         <v>41.96</v>
@@ -6807,7 +6829,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>-20.00000000000007</v>
+        <v>-18.5185185185185</v>
       </c>
       <c r="L129" t="n">
         <v>41.9</v>
@@ -6858,7 +6880,7 @@
         <v>18.29999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>-10.52631578947392</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L130" t="n">
         <v>41.86</v>
@@ -6909,7 +6931,7 @@
         <v>19.09999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666793</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L131" t="n">
         <v>41.90000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>2.127659574467969</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>41.93000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>19.49999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>2.127659574468117</v>
+        <v>23.52941176470576</v>
       </c>
       <c r="L133" t="n">
         <v>41.99</v>
@@ -7062,7 +7084,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-2.040816326530642</v>
+        <v>13.5135135135135</v>
       </c>
       <c r="L134" t="n">
         <v>42.03</v>
@@ -7113,7 +7135,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-4.000000000000057</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L135" t="n">
         <v>42.07</v>
@@ -7164,7 +7186,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.122448979591925</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L136" t="n">
         <v>42.02</v>
@@ -7215,7 +7237,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.122448979591925</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L137" t="n">
         <v>41.98999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>-10.63829787234042</v>
+        <v>5.263157894736527</v>
       </c>
       <c r="L138" t="n">
         <v>42.02</v>
@@ -7317,7 +7339,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>-3.999999999999909</v>
+        <v>14.28571428571438</v>
       </c>
       <c r="L139" t="n">
         <v>42.06</v>
@@ -7368,7 +7390,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-9.433962264150923</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L140" t="n">
         <v>42.05</v>
@@ -7419,7 +7441,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>-9.433962264150923</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L141" t="n">
         <v>41.95999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>-3.846153846153898</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L142" t="n">
         <v>41.91</v>
@@ -7521,7 +7543,7 @@
         <v>20.99999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>-1.960784313725381</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L143" t="n">
         <v>41.84</v>
@@ -7572,7 +7594,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>-1.960784313725518</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>41.79</v>
@@ -7623,7 +7645,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>3.846153846153898</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L145" t="n">
         <v>41.77</v>
@@ -7674,7 +7696,7 @@
         <v>21.69999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-21.73913043478257</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L146" t="n">
         <v>41.72</v>
@@ -7725,7 +7747,7 @@
         <v>21.69999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>-16.27906976744188</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L147" t="n">
         <v>41.67999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>22.59999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>17.39130434782599</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L148" t="n">
         <v>41.73</v>
@@ -7827,7 +7849,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>4.166666666666574</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L149" t="n">
         <v>41.70999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>2.127659574468111</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L150" t="n">
         <v>41.72999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>23.09999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.00000000000001</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L151" t="n">
         <v>41.75999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>23.09999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.108108108108025</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L152" t="n">
         <v>41.77999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>23.19999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-8.108108108108025</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L153" t="n">
         <v>41.81999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>23.39999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>8.571428571428489</v>
+        <v>29.99999999999972</v>
       </c>
       <c r="L154" t="n">
         <v>41.89999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K155" t="n">
-        <v>8.57142857142871</v>
+        <v>44.44444444444493</v>
       </c>
       <c r="L155" t="n">
         <v>41.95</v>
@@ -8184,7 +8206,7 @@
         <v>23.59999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>11.11111111111111</v>
+        <v>47.36842105263189</v>
       </c>
       <c r="L156" t="n">
         <v>42.04</v>
@@ -8235,7 +8257,7 @@
         <v>23.69999999999996</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111133</v>
+        <v>-9.090909090908738</v>
       </c>
       <c r="L157" t="n">
         <v>42.12</v>
@@ -8286,7 +8308,7 @@
         <v>23.79999999999995</v>
       </c>
       <c r="K158" t="n">
-        <v>13.51351351351361</v>
+        <v>50.00000000000134</v>
       </c>
       <c r="L158" t="n">
         <v>42.12</v>
@@ -8337,7 +8359,7 @@
         <v>23.89999999999995</v>
       </c>
       <c r="K159" t="n">
-        <v>2.857142857142927</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L159" t="n">
         <v>42.15</v>
@@ -8388,7 +8410,7 @@
         <v>23.89999999999995</v>
       </c>
       <c r="K160" t="n">
-        <v>16.12903225806469</v>
+        <v>25.00000000000133</v>
       </c>
       <c r="L160" t="n">
         <v>42.18</v>
@@ -8439,7 +8461,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K161" t="n">
-        <v>21.21212121212133</v>
+        <v>40.00000000000128</v>
       </c>
       <c r="L161" t="n">
         <v>42.22</v>
@@ -8490,7 +8512,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K162" t="n">
-        <v>18.75000000000023</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L162" t="n">
         <v>42.26</v>
@@ -8541,7 +8563,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K163" t="n">
-        <v>22.58064516129038</v>
+        <v>14.28571428571516</v>
       </c>
       <c r="L163" t="n">
         <v>42.28999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K164" t="n">
-        <v>31.03448275862096</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L164" t="n">
         <v>42.29999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K165" t="n">
-        <v>25.92592592592608</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L165" t="n">
         <v>42.31999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K166" t="n">
-        <v>41.6666666666673</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L166" t="n">
         <v>42.32999999999998</v>
@@ -8745,7 +8767,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K167" t="n">
-        <v>41.6666666666673</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L167" t="n">
         <v>42.34999999999998</v>
@@ -8796,7 +8818,7 @@
         <v>24.09999999999994</v>
       </c>
       <c r="K168" t="n">
-        <v>6.666666666666919</v>
+        <v>100</v>
       </c>
       <c r="L168" t="n">
         <v>42.35999999999998</v>
@@ -8847,7 +8869,7 @@
         <v>24.39999999999994</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571487</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L169" t="n">
         <v>42.34999999999998</v>
@@ -8898,7 +8920,7 @@
         <v>24.39999999999994</v>
       </c>
       <c r="K170" t="n">
-        <v>14.28571428571487</v>
+        <v>-100</v>
       </c>
       <c r="L170" t="n">
         <v>42.33999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>24.69999999999994</v>
       </c>
       <c r="K171" t="n">
-        <v>25.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>42.33999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>24.69999999999994</v>
       </c>
       <c r="K172" t="n">
-        <v>25.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>42.33999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K173" t="n">
-        <v>25.00000000000055</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L173" t="n">
         <v>42.34999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>24.99999999999994</v>
       </c>
       <c r="K174" t="n">
-        <v>25.00000000000089</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L174" t="n">
         <v>42.37999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>25.69999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.090909090909326</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L175" t="n">
         <v>42.33999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>25.79999999999995</v>
       </c>
       <c r="K176" t="n">
-        <v>-18.18181818181827</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L176" t="n">
         <v>42.28999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K177" t="n">
-        <v>11.11111111111105</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L177" t="n">
         <v>42.3</v>
@@ -9306,7 +9328,7 @@
         <v>26.49999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>11.11111111111129</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L178" t="n">
         <v>42.32</v>
@@ -9357,7 +9379,7 @@
         <v>26.49999999999995</v>
       </c>
       <c r="K179" t="n">
-        <v>15.38461538461532</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L179" t="n">
         <v>42.37</v>
@@ -9408,7 +9430,7 @@
         <v>26.59999999999995</v>
       </c>
       <c r="K180" t="n">
-        <v>18.5185185185185</v>
+        <v>15.78947368421064</v>
       </c>
       <c r="L180" t="n">
         <v>42.42999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K181" t="n">
-        <v>7.692307692307776</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L181" t="n">
         <v>42.45</v>
@@ -9510,7 +9532,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307776</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L182" t="n">
         <v>42.47000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>26.79999999999995</v>
       </c>
       <c r="K183" t="n">
-        <v>3.703703703703742</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L183" t="n">
         <v>42.47000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>26.79999999999995</v>
       </c>
       <c r="K184" t="n">
-        <v>3.703703703703742</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L184" t="n">
         <v>42.45</v>
@@ -9663,7 +9685,7 @@
         <v>26.89999999999996</v>
       </c>
       <c r="K185" t="n">
-        <v>7.142857142857216</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L185" t="n">
         <v>42.51000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K186" t="n">
-        <v>3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>42.57000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K187" t="n">
-        <v>3.448275862068999</v>
+        <v>-20</v>
       </c>
       <c r="L187" t="n">
         <v>42.57000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K188" t="n">
-        <v>3.448275862068999</v>
+        <v>-20</v>
       </c>
       <c r="L188" t="n">
         <v>42.56000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>15.38461538461524</v>
+        <v>-50</v>
       </c>
       <c r="L189" t="n">
         <v>42.55</v>
@@ -9918,7 +9940,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>15.38461538461524</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>42.53000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>4.347826086956549</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>42.52</v>
@@ -10020,7 +10042,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K192" t="n">
-        <v>4.347826086956549</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>42.51000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>-10.00000000000007</v>
+        <v>-100</v>
       </c>
       <c r="L194" t="n">
         <v>42.51000000000001</v>
@@ -10172,9 +10194,7 @@
       <c r="J195" t="n">
         <v>26.99999999999996</v>
       </c>
-      <c r="K195" t="n">
-        <v>38.46153846153813</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>42.5</v>
       </c>
@@ -10224,7 +10244,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K196" t="n">
-        <v>20.00000000000019</v>
+        <v>-100</v>
       </c>
       <c r="L196" t="n">
         <v>42.47</v>
@@ -10326,7 +10346,7 @@
         <v>27.69999999999995</v>
       </c>
       <c r="K198" t="n">
-        <v>-16.66666666666686</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L198" t="n">
         <v>42.45999999999999</v>
@@ -10377,7 +10397,7 @@
         <v>27.89999999999995</v>
       </c>
       <c r="K199" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>42.42999999999999</v>
@@ -10428,7 +10448,7 @@
         <v>27.99999999999995</v>
       </c>
       <c r="K200" t="n">
-        <v>-42.857142857143</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L200" t="n">
         <v>42.39</v>
@@ -10479,7 +10499,7 @@
         <v>28.09999999999995</v>
       </c>
       <c r="K201" t="n">
-        <v>-42.857142857143</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L201" t="n">
         <v>42.34</v>
@@ -10581,7 +10601,7 @@
         <v>28.19999999999995</v>
       </c>
       <c r="K203" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>42.26000000000001</v>
@@ -10632,7 +10652,7 @@
         <v>28.29999999999995</v>
       </c>
       <c r="K204" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L204" t="n">
         <v>42.21</v>
@@ -10683,7 +10703,7 @@
         <v>28.29999999999995</v>
       </c>
       <c r="K205" t="n">
-        <v>-42.857142857143</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L205" t="n">
         <v>42.16</v>
@@ -10734,7 +10754,7 @@
         <v>28.29999999999995</v>
       </c>
       <c r="K206" t="n">
-        <v>-38.46153846153855</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L206" t="n">
         <v>42.14</v>
@@ -10785,7 +10805,7 @@
         <v>28.59999999999995</v>
       </c>
       <c r="K207" t="n">
-        <v>-12.50000000000022</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L207" t="n">
         <v>42.12</v>
@@ -10836,7 +10856,7 @@
         <v>28.59999999999995</v>
       </c>
       <c r="K208" t="n">
-        <v>-12.50000000000022</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L208" t="n">
         <v>42.11000000000001</v>
@@ -10887,7 +10907,7 @@
         <v>28.59999999999995</v>
       </c>
       <c r="K209" t="n">
-        <v>-12.50000000000022</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L209" t="n">
         <v>42.12000000000001</v>
@@ -10938,7 +10958,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K210" t="n">
-        <v>-5.882352941176569</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L210" t="n">
         <v>42.15000000000001</v>
@@ -10989,7 +11009,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.882352941176569</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L211" t="n">
         <v>42.19</v>
@@ -11040,7 +11060,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.882352941176569</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L212" t="n">
         <v>42.22</v>
@@ -11091,7 +11111,7 @@
         <v>29.29999999999995</v>
       </c>
       <c r="K213" t="n">
-        <v>-30.43478260869582</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L213" t="n">
         <v>42.19</v>
@@ -11142,7 +11162,7 @@
         <v>29.89999999999996</v>
       </c>
       <c r="K214" t="n">
-        <v>-3.448275862069016</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L214" t="n">
         <v>42.23</v>
@@ -11193,7 +11213,7 @@
         <v>30.49999999999996</v>
       </c>
       <c r="K215" t="n">
-        <v>-20.00000000000008</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L215" t="n">
         <v>42.20999999999999</v>
@@ -11244,7 +11264,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K216" t="n">
-        <v>2.702702702702547</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>42.23999999999999</v>
@@ -11295,7 +11315,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>42.23999999999999</v>
@@ -11346,7 +11366,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.03030303030307</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>42.23999999999999</v>
@@ -11397,7 +11417,7 @@
         <v>31.09999999999995</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-8.333333333333162</v>
       </c>
       <c r="L219" t="n">
         <v>42.23</v>
@@ -11448,7 +11468,7 @@
         <v>31.79999999999995</v>
       </c>
       <c r="K220" t="n">
-        <v>-15.78947368421055</v>
+        <v>-29.03225806451607</v>
       </c>
       <c r="L220" t="n">
         <v>42.14</v>
@@ -11499,7 +11519,7 @@
         <v>32.59999999999995</v>
       </c>
       <c r="K221" t="n">
-        <v>6.666666666666604</v>
+        <v>-2.564102564102602</v>
       </c>
       <c r="L221" t="n">
         <v>42.13</v>
@@ -11550,7 +11570,7 @@
         <v>32.69999999999995</v>
       </c>
       <c r="K222" t="n">
-        <v>6.666666666666604</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L222" t="n">
         <v>42.13</v>
@@ -11601,7 +11621,7 @@
         <v>32.79999999999995</v>
       </c>
       <c r="K223" t="n">
-        <v>4.347826086956428</v>
+        <v>-3.448275862069016</v>
       </c>
       <c r="L223" t="n">
         <v>42.18</v>
@@ -11652,7 +11672,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>8.695652173913009</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L224" t="n">
         <v>42.18</v>
@@ -11703,7 +11723,7 @@
         <v>32.89999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>8.695652173913009</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L225" t="n">
         <v>42.23999999999999</v>
@@ -11754,7 +11774,7 @@
         <v>33.79999999999995</v>
       </c>
       <c r="K226" t="n">
-        <v>-9.090909090909092</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L226" t="n">
         <v>42.16</v>
@@ -11805,7 +11825,7 @@
         <v>34.69999999999995</v>
       </c>
       <c r="K227" t="n">
-        <v>1.639344262295105</v>
+        <v>2.702702702702744</v>
       </c>
       <c r="L227" t="n">
         <v>42.16999999999999</v>
@@ -11856,7 +11876,7 @@
         <v>34.69999999999995</v>
       </c>
       <c r="K228" t="n">
-        <v>1.639344262295105</v>
+        <v>5.555555555555435</v>
       </c>
       <c r="L228" t="n">
         <v>42.17999999999999</v>
@@ -11907,7 +11927,7 @@
         <v>34.79999999999995</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>26.66666666666657</v>
       </c>
       <c r="L229" t="n">
         <v>42.18999999999999</v>
@@ -11958,7 +11978,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.7647058823529</v>
+        <v>-24.13793103448262</v>
       </c>
       <c r="L230" t="n">
         <v>42.2</v>
@@ -12009,7 +12029,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.7647058823529</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L231" t="n">
         <v>42.13</v>
@@ -12060,7 +12080,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K232" t="n">
-        <v>-11.7647058823529</v>
+        <v>-25.92592592592581</v>
       </c>
       <c r="L232" t="n">
         <v>42.05</v>
@@ -12111,7 +12131,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K233" t="n">
-        <v>-3.225806451612836</v>
+        <v>-30.76923076923073</v>
       </c>
       <c r="L233" t="n">
         <v>41.98</v>
@@ -12162,7 +12182,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K234" t="n">
-        <v>-4.918032786885204</v>
+        <v>-9.677419354838635</v>
       </c>
       <c r="L234" t="n">
         <v>41.95</v>
@@ -12213,7 +12233,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K235" t="n">
-        <v>7.142857142857252</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L235" t="n">
         <v>41.93000000000001</v>
@@ -12264,7 +12284,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K236" t="n">
-        <v>-1.960784313725381</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L236" t="n">
         <v>42.00000000000001</v>
@@ -12315,7 +12335,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K237" t="n">
-        <v>-1.960784313725381</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L237" t="n">
         <v>41.98</v>
@@ -12366,7 +12386,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K238" t="n">
-        <v>-1.960784313725381</v>
+        <v>-7.692307692307272</v>
       </c>
       <c r="L238" t="n">
         <v>41.96000000000001</v>
@@ -12417,7 +12437,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L239" t="n">
         <v>41.95</v>
@@ -12468,7 +12488,7 @@
         <v>36.29999999999995</v>
       </c>
       <c r="K240" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L240" t="n">
         <v>42.03</v>
@@ -12519,7 +12539,7 @@
         <v>36.39999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L241" t="n">
         <v>42.1</v>
@@ -12570,7 +12590,7 @@
         <v>36.39999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>-2.702702702702744</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L242" t="n">
         <v>42.17</v>
@@ -12621,7 +12641,7 @@
         <v>36.49999999999995</v>
       </c>
       <c r="K243" t="n">
-        <v>2.702702702702744</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L243" t="n">
         <v>42.24999999999999</v>
@@ -12672,7 +12692,7 @@
         <v>36.49999999999995</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L244" t="n">
         <v>42.27999999999999</v>
@@ -12723,7 +12743,7 @@
         <v>36.59999999999995</v>
       </c>
       <c r="K245" t="n">
-        <v>2.702702702702744</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L245" t="n">
         <v>42.30999999999999</v>
@@ -12774,7 +12794,7 @@
         <v>36.59999999999995</v>
       </c>
       <c r="K246" t="n">
-        <v>35.71428571428575</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L246" t="n">
         <v>42.33999999999999</v>
@@ -12825,7 +12845,7 @@
         <v>36.59999999999995</v>
       </c>
       <c r="K247" t="n">
-        <v>5.263157894736921</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L247" t="n">
         <v>42.36999999999999</v>
@@ -12876,7 +12896,7 @@
         <v>36.59999999999995</v>
       </c>
       <c r="K248" t="n">
-        <v>5.263157894736921</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L248" t="n">
         <v>42.39999999999999</v>
@@ -12927,7 +12947,7 @@
         <v>36.59999999999995</v>
       </c>
       <c r="K249" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>42.42999999999999</v>
@@ -12978,7 +12998,7 @@
         <v>36.79999999999995</v>
       </c>
       <c r="K250" t="n">
-        <v>84.61538461538444</v>
+        <v>100</v>
       </c>
       <c r="L250" t="n">
         <v>42.45999999999999</v>
@@ -13029,7 +13049,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K251" t="n">
-        <v>71.42857142857115</v>
+        <v>60</v>
       </c>
       <c r="L251" t="n">
         <v>42.48999999999999</v>
@@ -13080,7 +13100,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K252" t="n">
-        <v>71.42857142857115</v>
+        <v>50</v>
       </c>
       <c r="L252" t="n">
         <v>42.52</v>
@@ -13131,7 +13151,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K253" t="n">
-        <v>73.33333333333309</v>
+        <v>60</v>
       </c>
       <c r="L253" t="n">
         <v>42.55</v>
@@ -13233,7 +13253,7 @@
         <v>37.29999999999995</v>
       </c>
       <c r="K255" t="n">
-        <v>49.9999999999994</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L255" t="n">
         <v>42.63</v>
@@ -13284,7 +13304,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>53.84615384615334</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L256" t="n">
         <v>42.67</v>
@@ -13335,7 +13355,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K257" t="n">
-        <v>53.84615384615334</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L257" t="n">
         <v>42.70999999999999</v>
@@ -13386,7 +13406,7 @@
         <v>37.49999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>42.85714285714228</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L258" t="n">
         <v>42.73999999999999</v>
@@ -13437,7 +13457,7 @@
         <v>37.69999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>49.99999999999956</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L259" t="n">
         <v>42.79</v>
@@ -13488,7 +13508,7 @@
         <v>37.79999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>33.33333333333302</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L260" t="n">
         <v>42.81</v>
@@ -13539,7 +13559,7 @@
         <v>37.89999999999996</v>
       </c>
       <c r="K261" t="n">
-        <v>46.66666666666642</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L261" t="n">
         <v>42.84999999999999</v>
@@ -13590,7 +13610,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K262" t="n">
-        <v>37.49999999999972</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L262" t="n">
         <v>42.87999999999999</v>
@@ -13641,7 +13661,7 @@
         <v>38.09999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>24.99999999999967</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L263" t="n">
         <v>42.88999999999999</v>
@@ -13692,7 +13712,7 @@
         <v>38.19999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>29.41176470588206</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L264" t="n">
         <v>42.88999999999999</v>
@@ -13743,7 +13763,7 @@
         <v>38.29999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>17.64705882352907</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L265" t="n">
         <v>42.88999999999999</v>
@@ -13794,7 +13814,7 @@
         <v>38.39999999999997</v>
       </c>
       <c r="K266" t="n">
-        <v>22.22222222222192</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>42.88999999999999</v>
@@ -13845,7 +13865,7 @@
         <v>38.39999999999997</v>
       </c>
       <c r="K267" t="n">
-        <v>22.22222222222192</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L267" t="n">
         <v>42.88999999999999</v>
@@ -13896,7 +13916,7 @@
         <v>38.49999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>26.31578947368394</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>42.90999999999999</v>
@@ -13947,7 +13967,7 @@
         <v>38.49999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>26.31578947368394</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L269" t="n">
         <v>42.90999999999999</v>
@@ -13998,7 +14018,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>11.11111111111076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L270" t="n">
         <v>42.90999999999999</v>
@@ -14049,7 +14069,7 @@
         <v>38.69999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>11.11111111111076</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L271" t="n">
         <v>42.88999999999999</v>
@@ -14100,7 +14120,7 @@
         <v>38.89999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L272" t="n">
         <v>42.86</v>
@@ -14151,7 +14171,7 @@
         <v>38.99999999999997</v>
       </c>
       <c r="K273" t="n">
-        <v>-10.00000000000007</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L273" t="n">
         <v>42.83</v>
@@ -14202,7 +14222,7 @@
         <v>39.19999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>-9.99999999999968</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L274" t="n">
         <v>42.81</v>
@@ -14253,7 +14273,7 @@
         <v>39.39999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>-14.285714285714</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L275" t="n">
         <v>42.77999999999999</v>
@@ -14304,7 +14324,7 @@
         <v>39.39999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>-19.99999999999972</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L276" t="n">
         <v>42.73999999999999</v>
@@ -14355,7 +14375,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.090909090908797</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L277" t="n">
         <v>42.72</v>
@@ -14406,7 +14426,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.761904761904439</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L278" t="n">
         <v>42.69</v>
@@ -14457,7 +14477,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>-15.78947368421021</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L279" t="n">
         <v>42.66</v>
@@ -14508,7 +14528,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.11111111111076</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L280" t="n">
         <v>42.64</v>
@@ -14559,7 +14579,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>-17.64705882352907</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L281" t="n">
         <v>42.63</v>
@@ -14610,7 +14630,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>5.263157894736882</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L282" t="n">
         <v>42.66999999999999</v>
@@ -14661,7 +14681,7 @@
         <v>40.09999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L283" t="n">
         <v>42.7</v>
@@ -14712,7 +14732,7 @@
         <v>40.09999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>-5.263157894736882</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L284" t="n">
         <v>42.70999999999999</v>
@@ -14763,7 +14783,7 @@
         <v>40.19999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>5.263157894736882</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L285" t="n">
         <v>42.74999999999999</v>
@@ -14814,7 +14834,7 @@
         <v>40.39999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>10.00000000000007</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L286" t="n">
         <v>42.81</v>
@@ -14865,7 +14885,7 @@
         <v>40.39999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>10.00000000000007</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L287" t="n">
         <v>42.85</v>
@@ -14916,7 +14936,7 @@
         <v>40.39999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>5.263157894736882</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L288" t="n">
         <v>42.89</v>
@@ -14967,7 +14987,7 @@
         <v>40.79999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>21.7391304347825</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L289" t="n">
         <v>42.97000000000001</v>
@@ -15018,7 +15038,7 @@
         <v>40.89999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>30.43478260869563</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L290" t="n">
         <v>43.06000000000001</v>
@@ -15069,7 +15089,7 @@
         <v>41.79999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>54.8387096774193</v>
+        <v>78.9473684210524</v>
       </c>
       <c r="L291" t="n">
         <v>43.24000000000001</v>
@@ -15120,7 +15140,7 @@
         <v>42.79999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>23.07692307692296</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L292" t="n">
         <v>43.29000000000001</v>
@@ -15171,7 +15191,7 @@
         <v>43.69999999999998</v>
       </c>
       <c r="K293" t="n">
-        <v>40.4255319148935</v>
+        <v>44.44444444444446</v>
       </c>
       <c r="L293" t="n">
         <v>43.45</v>
@@ -15222,7 +15242,7 @@
         <v>43.79999999999998</v>
       </c>
       <c r="K294" t="n">
-        <v>39.13043478260856</v>
+        <v>44.44444444444446</v>
       </c>
       <c r="L294" t="n">
         <v>43.62</v>
@@ -15273,7 +15293,7 @@
         <v>44.19999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>33.33333333333333</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L295" t="n">
         <v>43.74000000000001</v>
@@ -15324,7 +15344,7 @@
         <v>45.09999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>43.85964912280699</v>
+        <v>40.42553191489363</v>
       </c>
       <c r="L296" t="n">
         <v>43.93000000000001</v>
@@ -15375,7 +15395,7 @@
         <v>45.49999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>32.20338983050846</v>
+        <v>29.41176470588239</v>
       </c>
       <c r="L297" t="n">
         <v>44.08000000000001</v>
@@ -15426,7 +15446,7 @@
         <v>45.59999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>33.33333333333333</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L298" t="n">
         <v>44.24</v>
@@ -15477,7 +15497,7 @@
         <v>45.69999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>31.14754098360653</v>
+        <v>20.83333333333335</v>
       </c>
       <c r="L299" t="n">
         <v>44.35000000000001</v>
@@ -15528,7 +15548,7 @@
         <v>45.69999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>31.14754098360653</v>
+        <v>2.564102564102602</v>
       </c>
       <c r="L300" t="n">
         <v>44.45</v>
@@ -15579,7 +15599,7 @@
         <v>45.79999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>29.03225806451607</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>44.45</v>
@@ -15630,7 +15650,7 @@
         <v>45.89999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>23.33333333333328</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>44.54000000000001</v>
@@ -15681,7 +15701,7 @@
         <v>46.09999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>30.00000000000004</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L303" t="n">
         <v>44.56000000000001</v>
@@ -15732,7 +15752,7 @@
         <v>46.09999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>30.00000000000004</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L304" t="n">
         <v>44.57000000000001</v>
@@ -15783,7 +15803,7 @@
         <v>46.29999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>31.14754098360653</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L305" t="n">
         <v>44.64000000000001</v>
@@ -15834,7 +15854,7 @@
         <v>46.29999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>28.81355932203383</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L306" t="n">
         <v>44.62000000000001</v>
@@ -15885,7 +15905,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>29.99999999999995</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L307" t="n">
         <v>44.65000000000001</v>
@@ -15936,7 +15956,7 @@
         <v>46.79999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>21.87499999999998</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L308" t="n">
         <v>44.63000000000001</v>
@@ -15987,7 +16007,7 @@
         <v>47.29999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>23.07692307692308</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L309" t="n">
         <v>44.67</v>
@@ -16038,7 +16058,7 @@
         <v>47.59999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>25.37313432835816</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L310" t="n">
         <v>44.74</v>
@@ -16089,7 +16109,7 @@
         <v>47.89999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>18.03278688524592</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L311" t="n">
         <v>44.85000000000001</v>
@@ -16140,7 +16160,7 @@
         <v>47.89999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>41.17647058823531</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L312" t="n">
         <v>44.97000000000001</v>
@@ -16191,7 +16211,7 @@
         <v>47.99999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>30.23255813953496</v>
+        <v>57.89473684210537</v>
       </c>
       <c r="L313" t="n">
         <v>45.08000000000001</v>
@@ -16242,7 +16262,7 @@
         <v>48.19999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>31.8181818181818</v>
+        <v>57.89473684210537</v>
       </c>
       <c r="L314" t="n">
         <v>45.21</v>
@@ -16293,7 +16313,7 @@
         <v>48.29999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>46.34146341463409</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L315" t="n">
         <v>45.33</v>
@@ -16344,7 +16364,7 @@
         <v>49.09999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>5.000000000000071</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L316" t="n">
         <v>45.37</v>
@@ -16395,7 +16415,7 @@
         <v>49.49999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>25</v>
+        <v>40.74074074074085</v>
       </c>
       <c r="L317" t="n">
         <v>45.44</v>
@@ -16446,7 +16466,7 @@
         <v>49.59999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>19.99999999999993</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L318" t="n">
         <v>45.54000000000001</v>
@@ -16497,7 +16517,7 @@
         <v>49.59999999999998</v>
       </c>
       <c r="K319" t="n">
-        <v>23.07692307692305</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L319" t="n">
         <v>45.59</v>
@@ -16548,7 +16568,7 @@
         <v>50.49999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>37.49999999999996</v>
+        <v>30.76923076923073</v>
       </c>
       <c r="L320" t="n">
         <v>45.7</v>
@@ -16599,7 +16619,7 @@
         <v>50.79999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>32.00000000000007</v>
+        <v>17.24137931034488</v>
       </c>
       <c r="L321" t="n">
         <v>45.75</v>
@@ -16650,7 +16670,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K322" t="n">
-        <v>39.62264150943406</v>
+        <v>25</v>
       </c>
       <c r="L322" t="n">
         <v>45.84</v>
@@ -16701,7 +16721,7 @@
         <v>51.69999999999997</v>
       </c>
       <c r="K323" t="n">
-        <v>25.00000000000003</v>
+        <v>2.857142857142903</v>
       </c>
       <c r="L323" t="n">
         <v>45.87</v>
@@ -16752,7 +16772,7 @@
         <v>52.09999999999997</v>
       </c>
       <c r="K324" t="n">
-        <v>30.00000000000002</v>
+        <v>10.52631578947367</v>
       </c>
       <c r="L324" t="n">
         <v>45.92</v>
@@ -16803,7 +16823,7 @@
         <v>52.99999999999997</v>
       </c>
       <c r="K325" t="n">
-        <v>37.31343283582096</v>
+        <v>53.84615384615382</v>
       </c>
       <c r="L325" t="n">
         <v>46.05</v>
@@ -16854,7 +16874,7 @@
         <v>54.09999999999997</v>
       </c>
       <c r="K326" t="n">
-        <v>17.94871794871806</v>
+        <v>13.04347826086963</v>
       </c>
       <c r="L326" t="n">
         <v>46.15</v>
@@ -16905,7 +16925,7 @@
         <v>54.29999999999996</v>
       </c>
       <c r="K327" t="n">
-        <v>18.98734177215195</v>
+        <v>19.14893617021281</v>
       </c>
       <c r="L327" t="n">
         <v>46.23</v>
@@ -16956,7 +16976,7 @@
         <v>54.49999999999996</v>
       </c>
       <c r="K328" t="n">
-        <v>27.27272727272736</v>
+        <v>22.44897959183684</v>
       </c>
       <c r="L328" t="n">
         <v>46.34</v>
@@ -17007,7 +17027,7 @@
         <v>54.79999999999997</v>
       </c>
       <c r="K329" t="n">
-        <v>17.33333333333333</v>
+        <v>-2.325581395348876</v>
       </c>
       <c r="L329" t="n">
         <v>46.42</v>
@@ -17058,7 +17078,7 @@
         <v>54.99999999999997</v>
       </c>
       <c r="K330" t="n">
-        <v>16.21621621621627</v>
+        <v>9.523809523809499</v>
       </c>
       <c r="L330" t="n">
         <v>46.43</v>
@@ -17109,7 +17129,7 @@
         <v>55.29999999999997</v>
       </c>
       <c r="K331" t="n">
-        <v>16.21621621621619</v>
+        <v>7.317073170731649</v>
       </c>
       <c r="L331" t="n">
         <v>46.5</v>
@@ -17160,7 +17180,7 @@
         <v>55.29999999999997</v>
       </c>
       <c r="K332" t="n">
-        <v>16.21621621621619</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L332" t="n">
         <v>46.53</v>
@@ -17211,7 +17231,7 @@
         <v>55.49999999999996</v>
       </c>
       <c r="K333" t="n">
-        <v>12.00000000000001</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L333" t="n">
         <v>46.59</v>
@@ -17262,7 +17282,7 @@
         <v>55.59999999999997</v>
       </c>
       <c r="K334" t="n">
-        <v>8.108108108108144</v>
+        <v>-30.76923076923073</v>
       </c>
       <c r="L334" t="n">
         <v>46.60000000000001</v>
@@ -17313,7 +17333,7 @@
         <v>55.89999999999996</v>
       </c>
       <c r="K335" t="n">
-        <v>10.52631578947367</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L335" t="n">
         <v>46.55</v>
@@ -17364,7 +17384,7 @@
         <v>55.99999999999996</v>
       </c>
       <c r="K336" t="n">
-        <v>21.73913043478268</v>
+        <v>17.64705882352971</v>
       </c>
       <c r="L336" t="n">
         <v>46.60000000000001</v>
@@ -17415,7 +17435,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K337" t="n">
-        <v>10.14492753623185</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L337" t="n">
         <v>46.59000000000001</v>
@@ -17466,7 +17486,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K338" t="n">
-        <v>10.14492753623196</v>
+        <v>-5.882352941176175</v>
       </c>
       <c r="L338" t="n">
         <v>46.55000000000001</v>
@@ -17517,7 +17537,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K339" t="n">
-        <v>10.14492753623196</v>
+        <v>-20</v>
       </c>
       <c r="L339" t="n">
         <v>46.54000000000001</v>
@@ -17568,7 +17588,7 @@
         <v>56.59999999999996</v>
       </c>
       <c r="K340" t="n">
-        <v>-4.918032786885215</v>
+        <v>-53.84615384615393</v>
       </c>
       <c r="L340" t="n">
         <v>46.50000000000001</v>
@@ -17619,7 +17639,7 @@
         <v>57.69999999999996</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.9420289855073</v>
+        <v>-75.00000000000014</v>
       </c>
       <c r="L341" t="n">
         <v>46.32000000000001</v>
@@ -17670,7 +17690,7 @@
         <v>58.49999999999996</v>
       </c>
       <c r="K342" t="n">
-        <v>-9.589041095890472</v>
+        <v>-26.66666666666687</v>
       </c>
       <c r="L342" t="n">
         <v>46.22000000000001</v>
@@ -17721,7 +17741,7 @@
         <v>58.79999999999995</v>
       </c>
       <c r="K343" t="n">
-        <v>-7.04225352112678</v>
+        <v>-31.25000000000011</v>
       </c>
       <c r="L343" t="n">
         <v>46.11000000000001</v>
@@ -17772,7 +17792,7 @@
         <v>58.89999999999996</v>
       </c>
       <c r="K344" t="n">
-        <v>-11.76470588235293</v>
+        <v>-39.99999999999995</v>
       </c>
       <c r="L344" t="n">
         <v>46.02000000000001</v>
@@ -17823,7 +17843,7 @@
         <v>59.09999999999996</v>
       </c>
       <c r="K345" t="n">
-        <v>-31.1475409836066</v>
+        <v>-41.93548387096786</v>
       </c>
       <c r="L345" t="n">
         <v>45.88000000000001</v>
@@ -17874,7 +17894,7 @@
         <v>59.39999999999996</v>
       </c>
       <c r="K346" t="n">
-        <v>-20.75471698113214</v>
+        <v>-39.99999999999995</v>
       </c>
       <c r="L346" t="n">
         <v>45.72000000000001</v>
@@ -17925,7 +17945,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K347" t="n">
-        <v>-16.36363636363636</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L347" t="n">
         <v>45.64000000000001</v>
@@ -17976,7 +17996,7 @@
         <v>59.89999999999996</v>
       </c>
       <c r="K348" t="n">
-        <v>-22.22222222222231</v>
+        <v>-23.52941176470602</v>
       </c>
       <c r="L348" t="n">
         <v>45.56000000000001</v>
@@ -18027,7 +18047,7 @@
         <v>59.89999999999996</v>
       </c>
       <c r="K349" t="n">
-        <v>-17.64705882352943</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L349" t="n">
         <v>45.48</v>
@@ -18078,7 +18098,7 @@
         <v>59.99999999999996</v>
       </c>
       <c r="K350" t="n">
-        <v>-20.00000000000006</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L350" t="n">
         <v>45.42</v>
@@ -18129,7 +18149,7 @@
         <v>60.19999999999996</v>
       </c>
       <c r="K351" t="n">
-        <v>-30.61224489795923</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L351" t="n">
         <v>45.45</v>
@@ -18180,7 +18200,7 @@
         <v>60.39999999999996</v>
       </c>
       <c r="K352" t="n">
-        <v>-33.33333333333333</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L352" t="n">
         <v>45.38000000000001</v>
@@ -18231,7 +18251,7 @@
         <v>60.89999999999996</v>
       </c>
       <c r="K353" t="n">
-        <v>-37.03703703703709</v>
+        <v>-50</v>
       </c>
       <c r="L353" t="n">
         <v>45.29000000000001</v>
@@ -18282,7 +18302,7 @@
         <v>61.59999999999995</v>
       </c>
       <c r="K354" t="n">
-        <v>-20.0000000000001</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L354" t="n">
         <v>45.26000000000001</v>
@@ -18333,7 +18353,7 @@
         <v>62.39999999999995</v>
       </c>
       <c r="K355" t="n">
-        <v>-35.38461538461542</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L355" t="n">
         <v>45.17000000000001</v>
@@ -18384,7 +18404,7 @@
         <v>62.79999999999995</v>
       </c>
       <c r="K356" t="n">
-        <v>-26.47058823529422</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L356" t="n">
         <v>45.15000000000001</v>
@@ -18435,7 +18455,7 @@
         <v>62.79999999999995</v>
       </c>
       <c r="K357" t="n">
-        <v>-21.87500000000003</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L357" t="n">
         <v>45.09</v>
@@ -18486,7 +18506,7 @@
         <v>62.89999999999995</v>
       </c>
       <c r="K358" t="n">
-        <v>-18.75000000000007</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="L358" t="n">
         <v>45.05</v>
@@ -18537,7 +18557,7 @@
         <v>62.99999999999995</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.92307692307696</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="L359" t="n">
         <v>45.02000000000001</v>
@@ -18588,7 +18608,7 @@
         <v>62.99999999999995</v>
       </c>
       <c r="K360" t="n">
-        <v>-15.62500000000002</v>
+        <v>-7.142857142857016</v>
       </c>
       <c r="L360" t="n">
         <v>44.98000000000001</v>
@@ -18639,7 +18659,7 @@
         <v>62.99999999999995</v>
       </c>
       <c r="K361" t="n">
-        <v>1.886792452830219</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>44.96000000000002</v>
@@ -18690,7 +18710,7 @@
         <v>63.09999999999995</v>
       </c>
       <c r="K362" t="n">
-        <v>-17.39130434782605</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L362" t="n">
         <v>44.95000000000001</v>
@@ -18741,7 +18761,7 @@
         <v>63.19999999999995</v>
       </c>
       <c r="K363" t="n">
-        <v>-13.63636363636367</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L363" t="n">
         <v>44.98</v>
@@ -18792,7 +18812,7 @@
         <v>63.29999999999995</v>
       </c>
       <c r="K364" t="n">
-        <v>-18.18181818181829</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L364" t="n">
         <v>44.93000000000001</v>
@@ -18843,7 +18863,7 @@
         <v>63.99999999999996</v>
       </c>
       <c r="K365" t="n">
-        <v>2.040816326530642</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L365" t="n">
         <v>45.03000000000001</v>
@@ -18894,7 +18914,7 @@
         <v>63.99999999999996</v>
       </c>
       <c r="K366" t="n">
-        <v>8.695652173913009</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L366" t="n">
         <v>45.09000000000001</v>
@@ -18945,7 +18965,7 @@
         <v>63.99999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L367" t="n">
         <v>45.15000000000001</v>
@@ -18996,7 +19016,7 @@
         <v>64.09999999999997</v>
       </c>
       <c r="K368" t="n">
-        <v>4.761904761904819</v>
+        <v>45.45454545454481</v>
       </c>
       <c r="L368" t="n">
         <v>45.21000000000002</v>
@@ -19047,7 +19067,7 @@
         <v>64.19999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>2.325581395348868</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L369" t="n">
         <v>45.25000000000001</v>
@@ -19098,7 +19118,7 @@
         <v>64.19999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L370" t="n">
         <v>45.29000000000001</v>
@@ -19149,7 +19169,7 @@
         <v>64.39999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L371" t="n">
         <v>45.31000000000001</v>
@@ -19200,7 +19220,7 @@
         <v>64.59999999999997</v>
       </c>
       <c r="K372" t="n">
-        <v>9.523809523809469</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L372" t="n">
         <v>45.36000000000001</v>
@@ -19251,7 +19271,7 @@
         <v>65.09999999999997</v>
       </c>
       <c r="K373" t="n">
-        <v>33.33333333333322</v>
+        <v>66.6666666666664</v>
       </c>
       <c r="L373" t="n">
         <v>45.47000000000001</v>
@@ -19302,7 +19322,7 @@
         <v>65.39999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>26.31578947368413</v>
+        <v>57.14285714285671</v>
       </c>
       <c r="L374" t="n">
         <v>45.62000000000001</v>
@@ -19353,7 +19373,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K375" t="n">
-        <v>49.99999999999978</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L375" t="n">
         <v>45.68000000000001</v>
@@ -19404,7 +19424,7 @@
         <v>65.79999999999997</v>
       </c>
       <c r="K376" t="n">
-        <v>33.3333333333331</v>
+        <v>22.222222222222</v>
       </c>
       <c r="L376" t="n">
         <v>45.72000000000001</v>
@@ -19455,7 +19475,7 @@
         <v>65.89999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>35.48387096774164</v>
+        <v>22.222222222222</v>
       </c>
       <c r="L377" t="n">
         <v>45.77000000000001</v>
@@ -19506,7 +19526,7 @@
         <v>65.89999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>33.33333333333302</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L378" t="n">
         <v>45.81000000000001</v>
@@ -19557,7 +19577,7 @@
         <v>66.19999999999997</v>
       </c>
       <c r="K379" t="n">
-        <v>37.49999999999958</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L379" t="n">
         <v>45.89000000000001</v>
@@ -19608,7 +19628,7 @@
         <v>66.19999999999997</v>
       </c>
       <c r="K380" t="n">
-        <v>37.49999999999958</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L380" t="n">
         <v>45.97000000000001</v>
@@ -19659,7 +19679,7 @@
         <v>66.29999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>39.39393939393891</v>
+        <v>52.94117647058763</v>
       </c>
       <c r="L381" t="n">
         <v>46.08000000000001</v>
@@ -19710,7 +19730,7 @@
         <v>66.39999999999998</v>
       </c>
       <c r="K382" t="n">
-        <v>39.39393939393901</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L382" t="n">
         <v>46.16000000000001</v>
@@ -19761,7 +19781,7 @@
         <v>66.59999999999998</v>
       </c>
       <c r="K383" t="n">
-        <v>47.05882352941143</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L383" t="n">
         <v>46.21000000000001</v>
@@ -19812,7 +19832,7 @@
         <v>66.69999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>52.94117647058783</v>
+        <v>45.45454545454452</v>
       </c>
       <c r="L384" t="n">
         <v>46.24000000000001</v>
@@ -19863,7 +19883,7 @@
         <v>66.79999999999998</v>
       </c>
       <c r="K385" t="n">
-        <v>42.85714285714256</v>
+        <v>79.99999999999929</v>
       </c>
       <c r="L385" t="n">
         <v>46.3</v>
@@ -19914,7 +19934,7 @@
         <v>66.99999999999997</v>
       </c>
       <c r="K386" t="n">
-        <v>46.6666666666664</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L386" t="n">
         <v>46.40000000000001</v>
@@ -19965,7 +19985,7 @@
         <v>67.69999999999997</v>
       </c>
       <c r="K387" t="n">
-        <v>56.75675675675653</v>
+        <v>88.88888888888911</v>
       </c>
       <c r="L387" t="n">
         <v>46.56000000000001</v>
@@ -20016,7 +20036,7 @@
         <v>68.19999999999997</v>
       </c>
       <c r="K388" t="n">
-        <v>60.97560975609744</v>
+        <v>90.00000000000021</v>
       </c>
       <c r="L388" t="n">
         <v>46.77</v>
@@ -20067,7 +20087,7 @@
         <v>68.19999999999997</v>
       </c>
       <c r="K389" t="n">
-        <v>64.9999999999998</v>
+        <v>90.00000000000021</v>
       </c>
       <c r="L389" t="n">
         <v>46.95</v>
@@ -20118,7 +20138,7 @@
         <v>68.89999999999998</v>
       </c>
       <c r="K390" t="n">
-        <v>40.42553191489344</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L390" t="n">
         <v>47.06000000000001</v>
@@ -20169,7 +20189,7 @@
         <v>69.29999999999998</v>
       </c>
       <c r="K391" t="n">
-        <v>34.69387755102032</v>
+        <v>24.13793103448281</v>
       </c>
       <c r="L391" t="n">
         <v>47.12000000000002</v>
@@ -20220,7 +20240,7 @@
         <v>69.29999999999998</v>
       </c>
       <c r="K392" t="n">
-        <v>31.91489361702116</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L392" t="n">
         <v>47.19000000000001</v>
@@ -20271,7 +20291,7 @@
         <v>69.39999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>20.93023255813945</v>
+        <v>11.11111111111105</v>
       </c>
       <c r="L393" t="n">
         <v>47.23000000000002</v>
@@ -20322,7 +20342,7 @@
         <v>69.59999999999998</v>
       </c>
       <c r="K394" t="n">
-        <v>19.04761904761907</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L394" t="n">
         <v>47.28000000000002</v>
@@ -20373,7 +20393,7 @@
         <v>69.69999999999999</v>
       </c>
       <c r="K395" t="n">
-        <v>26.82926829268281</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L395" t="n">
         <v>47.33000000000003</v>
@@ -20424,7 +20444,7 @@
         <v>69.89999999999999</v>
       </c>
       <c r="K396" t="n">
-        <v>26.82926829268281</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L396" t="n">
         <v>47.34000000000002</v>
@@ -20475,7 +20495,7 @@
         <v>70.29999999999998</v>
       </c>
       <c r="K397" t="n">
-        <v>31.81818181818175</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>47.32000000000001</v>
@@ -20526,7 +20546,7 @@
         <v>70.29999999999998</v>
       </c>
       <c r="K398" t="n">
-        <v>31.81818181818175</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>47.25000000000001</v>
@@ -20577,7 +20597,7 @@
         <v>70.69999999999999</v>
       </c>
       <c r="K399" t="n">
-        <v>15.55555555555557</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L399" t="n">
         <v>47.14000000000001</v>
@@ -20628,7 +20648,7 @@
         <v>70.79999999999998</v>
       </c>
       <c r="K400" t="n">
-        <v>13.04347826086957</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L400" t="n">
         <v>47.09000000000001</v>
@@ -20679,7 +20699,7 @@
         <v>71.19999999999999</v>
       </c>
       <c r="K401" t="n">
-        <v>2.040816326530639</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L401" t="n">
         <v>47.04000000000001</v>
@@ -20730,7 +20750,7 @@
         <v>71.39999999999999</v>
       </c>
       <c r="K402" t="n">
-        <v>8.000000000000091</v>
+        <v>-9.999999999999716</v>
       </c>
       <c r="L402" t="n">
         <v>47.01000000000001</v>
@@ -20781,7 +20801,7 @@
         <v>71.39999999999999</v>
       </c>
       <c r="K403" t="n">
-        <v>4.166666666666716</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L403" t="n">
         <v>46.99000000000002</v>
@@ -20832,7 +20852,7 @@
         <v>71.49999999999999</v>
       </c>
       <c r="K404" t="n">
-        <v>4.166666666666581</v>
+        <v>-22.22222222222257</v>
       </c>
       <c r="L404" t="n">
         <v>46.96000000000002</v>
@@ -20883,7 +20903,7 @@
         <v>71.79999999999998</v>
       </c>
       <c r="K405" t="n">
-        <v>7.999999999999971</v>
+        <v>5.26315789473694</v>
       </c>
       <c r="L405" t="n">
         <v>46.95000000000002</v>
@@ -20934,7 +20954,7 @@
         <v>71.99999999999997</v>
       </c>
       <c r="K406" t="n">
-        <v>7.999999999999971</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L406" t="n">
         <v>46.98000000000002</v>
@@ -20985,7 +21005,7 @@
         <v>72.29999999999998</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L407" t="n">
         <v>47.00000000000002</v>
@@ -21036,7 +21056,7 @@
         <v>72.59999999999998</v>
       </c>
       <c r="K408" t="n">
-        <v>-4.545454545454604</v>
+        <v>47.36842105263172</v>
       </c>
       <c r="L408" t="n">
         <v>47.05000000000003</v>
@@ -21087,7 +21107,7 @@
         <v>72.99999999999997</v>
       </c>
       <c r="K409" t="n">
-        <v>4.166666666666581</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L409" t="n">
         <v>47.18000000000002</v>
@@ -21138,7 +21158,7 @@
         <v>73.59999999999997</v>
       </c>
       <c r="K410" t="n">
-        <v>31.91489361702136</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L410" t="n">
         <v>47.38000000000002</v>
@@ -21189,7 +21209,7 @@
         <v>73.79999999999995</v>
       </c>
       <c r="K411" t="n">
-        <v>37.77777777777808</v>
+        <v>83.33333333333461</v>
       </c>
       <c r="L411" t="n">
         <v>47.60000000000002</v>
@@ -21240,7 +21260,7 @@
         <v>75.09999999999995</v>
       </c>
       <c r="K412" t="n">
-        <v>51.72413793103476</v>
+        <v>89.18918918919007</v>
       </c>
       <c r="L412" t="n">
         <v>47.93000000000002</v>
@@ -21291,7 +21311,7 @@
         <v>75.39999999999995</v>
       </c>
       <c r="K413" t="n">
-        <v>56.66666666666691</v>
+        <v>89.74358974359059</v>
       </c>
       <c r="L413" t="n">
         <v>48.29000000000003</v>
@@ -21342,7 +21362,7 @@
         <v>76.29999999999995</v>
       </c>
       <c r="K414" t="n">
-        <v>34.32835820895531</v>
+        <v>51.11111111111137</v>
       </c>
       <c r="L414" t="n">
         <v>48.55000000000003</v>
@@ -21393,7 +21413,7 @@
         <v>76.29999999999995</v>
       </c>
       <c r="K415" t="n">
-        <v>33.33333333333344</v>
+        <v>48.83720930232581</v>
       </c>
       <c r="L415" t="n">
         <v>48.78000000000003</v>
@@ -21444,7 +21464,7 @@
         <v>77.19999999999996</v>
       </c>
       <c r="K416" t="n">
-        <v>20.54794520547954</v>
+        <v>18.36734693877557</v>
       </c>
       <c r="L416" t="n">
         <v>48.90000000000003</v>
@@ -21495,7 +21515,7 @@
         <v>77.39999999999996</v>
       </c>
       <c r="K417" t="n">
-        <v>12.67605633802819</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L417" t="n">
         <v>48.97000000000003</v>
@@ -21546,7 +21566,7 @@
         <v>77.69999999999996</v>
       </c>
       <c r="K418" t="n">
-        <v>8.108108108108151</v>
+        <v>-6.382978723404211</v>
       </c>
       <c r="L418" t="n">
         <v>48.98000000000003</v>
@@ -21597,7 +21617,7 @@
         <v>77.89999999999996</v>
       </c>
       <c r="K419" t="n">
-        <v>11.11111111111111</v>
+        <v>-25.58139534883726</v>
       </c>
       <c r="L419" t="n">
         <v>48.93000000000002</v>
@@ -21648,7 +21668,7 @@
         <v>78.49999999999997</v>
       </c>
       <c r="K420" t="n">
-        <v>19.48051948051951</v>
+        <v>-6.382978723404323</v>
       </c>
       <c r="L420" t="n">
         <v>48.88000000000003</v>
@@ -21699,7 +21719,7 @@
         <v>78.99999999999997</v>
       </c>
       <c r="K421" t="n">
-        <v>30.76923076923082</v>
+        <v>-28.2051282051281</v>
       </c>
       <c r="L421" t="n">
         <v>48.90000000000003</v>
@@ -21750,7 +21770,7 @@
         <v>79.29999999999998</v>
       </c>
       <c r="K422" t="n">
-        <v>31.6455696202532</v>
+        <v>-28.20512820512781</v>
       </c>
       <c r="L422" t="n">
         <v>48.82000000000003</v>
@@ -21801,7 +21821,7 @@
         <v>79.39999999999998</v>
       </c>
       <c r="K423" t="n">
-        <v>30.00000000000004</v>
+        <v>-9.677419354838547</v>
       </c>
       <c r="L423" t="n">
         <v>48.70000000000003</v>
@@ -21852,7 +21872,7 @@
         <v>79.79999999999998</v>
       </c>
       <c r="K424" t="n">
-        <v>22.89156626506032</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L424" t="n">
         <v>48.63000000000003</v>
@@ -21903,7 +21923,7 @@
         <v>79.99999999999997</v>
       </c>
       <c r="K425" t="n">
-        <v>21.95121951219512</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L425" t="n">
         <v>48.58000000000003</v>
@@ -21954,7 +21974,7 @@
         <v>80.29999999999998</v>
       </c>
       <c r="K426" t="n">
-        <v>22.89156626506028</v>
+        <v>31.03448275862067</v>
       </c>
       <c r="L426" t="n">
         <v>48.65000000000003</v>
@@ -22005,7 +22025,7 @@
         <v>80.49999999999997</v>
       </c>
       <c r="K427" t="n">
-        <v>21.95121951219512</v>
+        <v>49.99999999999974</v>
       </c>
       <c r="L427" t="n">
         <v>48.76000000000003</v>
@@ -22056,7 +22076,7 @@
         <v>80.49999999999997</v>
       </c>
       <c r="K428" t="n">
-        <v>18.98734177215192</v>
+        <v>61.53846153846138</v>
       </c>
       <c r="L428" t="n">
         <v>48.90000000000003</v>
@@ -22107,7 +22127,7 @@
         <v>80.69999999999996</v>
       </c>
       <c r="K429" t="n">
-        <v>11.68831168831178</v>
+        <v>36.36363636363675</v>
       </c>
       <c r="L429" t="n">
         <v>49.04000000000003</v>
@@ -22158,7 +22178,7 @@
         <v>80.79999999999995</v>
       </c>
       <c r="K430" t="n">
-        <v>2.777777777777822</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L430" t="n">
         <v>49.11000000000003</v>
@@ -22209,7 +22229,7 @@
         <v>80.89999999999995</v>
       </c>
       <c r="K431" t="n">
-        <v>7.042253521126766</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>49.14000000000004</v>
@@ -22260,7 +22280,7 @@
         <v>81.49999999999994</v>
       </c>
       <c r="K432" t="n">
-        <v>-3.125000000000048</v>
+        <v>33.33333333333367</v>
       </c>
       <c r="L432" t="n">
         <v>49.20000000000004</v>
@@ -22311,7 +22331,7 @@
         <v>82.79999999999994</v>
       </c>
       <c r="K433" t="n">
-        <v>-24.32432432432432</v>
+        <v>-6.666666666666857</v>
       </c>
       <c r="L433" t="n">
         <v>49.14000000000004</v>
@@ -22362,7 +22382,7 @@
         <v>83.19999999999993</v>
       </c>
       <c r="K434" t="n">
-        <v>-7.246376811594227</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>49.16000000000004</v>
@@ -22413,7 +22433,7 @@
         <v>83.19999999999993</v>
       </c>
       <c r="K435" t="n">
-        <v>-7.246376811594227</v>
+        <v>-10.34482758620723</v>
       </c>
       <c r="L435" t="n">
         <v>49.16000000000005</v>
@@ -22464,7 +22484,7 @@
         <v>83.49999999999993</v>
       </c>
       <c r="K436" t="n">
-        <v>1.587301587301618</v>
+        <v>-26.66666666666695</v>
       </c>
       <c r="L436" t="n">
         <v>49.10000000000005</v>
@@ -22515,7 +22535,7 @@
         <v>83.79999999999993</v>
       </c>
       <c r="K437" t="n">
-        <v>9.375000000000076</v>
+        <v>-15.15151515151536</v>
       </c>
       <c r="L437" t="n">
         <v>49.05000000000005</v>
@@ -22566,7 +22586,7 @@
         <v>84.19999999999993</v>
       </c>
       <c r="K438" t="n">
-        <v>20.00000000000004</v>
+        <v>2.857142857142718</v>
       </c>
       <c r="L438" t="n">
         <v>49.04000000000006</v>
@@ -22617,7 +22637,7 @@
         <v>84.29999999999993</v>
       </c>
       <c r="K439" t="n">
-        <v>21.87500000000022</v>
+        <v>2.857142857142921</v>
       </c>
       <c r="L439" t="n">
         <v>49.04000000000006</v>
@@ -22668,7 +22688,7 @@
         <v>84.39999999999992</v>
       </c>
       <c r="K440" t="n">
-        <v>15.2542372881357</v>
+        <v>2.857142857142718</v>
       </c>
       <c r="L440" t="n">
         <v>49.06000000000006</v>
@@ -22719,7 +22739,7 @@
         <v>84.49999999999991</v>
       </c>
       <c r="K441" t="n">
-        <v>5.454545454545588</v>
+        <v>-20</v>
       </c>
       <c r="L441" t="n">
         <v>49.06000000000007</v>
@@ -22770,7 +22790,7 @@
         <v>84.59999999999991</v>
       </c>
       <c r="K442" t="n">
-        <v>1.886792452830108</v>
+        <v>44.44444444444506</v>
       </c>
       <c r="L442" t="n">
         <v>49.01000000000006</v>
@@ -22821,7 +22841,7 @@
         <v>84.89999999999992</v>
       </c>
       <c r="K443" t="n">
-        <v>9.090909090909186</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L443" t="n">
         <v>49.12000000000006</v>
@@ -22872,7 +22892,7 @@
         <v>85.19999999999992</v>
       </c>
       <c r="K444" t="n">
-        <v>22.22222222222241</v>
+        <v>50.00000000000036</v>
       </c>
       <c r="L444" t="n">
         <v>49.22000000000006</v>
@@ -22923,7 +22943,7 @@
         <v>85.29999999999993</v>
       </c>
       <c r="K445" t="n">
-        <v>20.75471698113228</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L445" t="n">
         <v>49.33000000000006</v>
@@ -22974,7 +22994,7 @@
         <v>85.49999999999993</v>
       </c>
       <c r="K446" t="n">
-        <v>11.53846153846155</v>
+        <v>52.94117647058806</v>
       </c>
       <c r="L446" t="n">
         <v>49.45000000000006</v>
@@ -23025,7 +23045,7 @@
         <v>85.49999999999993</v>
       </c>
       <c r="K447" t="n">
-        <v>8.000000000000041</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L447" t="n">
         <v>49.54000000000006</v>
@@ -23076,7 +23096,7 @@
         <v>85.69999999999993</v>
       </c>
       <c r="K448" t="n">
-        <v>3.84615384615393</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L448" t="n">
         <v>49.57000000000006</v>
@@ -23127,7 +23147,7 @@
         <v>85.69999999999993</v>
       </c>
       <c r="K449" t="n">
-        <v>8.000000000000016</v>
+        <v>23.0769230769232</v>
       </c>
       <c r="L449" t="n">
         <v>49.61000000000006</v>
@@ -23178,7 +23198,7 @@
         <v>85.69999999999993</v>
       </c>
       <c r="K450" t="n">
-        <v>10.20408163265311</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L450" t="n">
         <v>49.64000000000005</v>
@@ -23229,7 +23249,7 @@
         <v>85.89999999999992</v>
       </c>
       <c r="K451" t="n">
-        <v>11.99999999999996</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L451" t="n">
         <v>49.70000000000005</v>
@@ -23280,7 +23300,7 @@
         <v>86.49999999999991</v>
       </c>
       <c r="K452" t="n">
-        <v>-11.99999999999996</v>
+        <v>-25</v>
       </c>
       <c r="L452" t="n">
         <v>49.69000000000005</v>
@@ -23331,7 +23351,7 @@
         <v>86.6999999999999</v>
       </c>
       <c r="K453" t="n">
-        <v>23.07692307692326</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L453" t="n">
         <v>49.67000000000005</v>
@@ -23382,7 +23402,7 @@
         <v>86.6999999999999</v>
       </c>
       <c r="K454" t="n">
-        <v>14.2857142857144</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L454" t="n">
         <v>49.62000000000005</v>
@@ -23433,7 +23453,7 @@
         <v>86.89999999999989</v>
       </c>
       <c r="K455" t="n">
-        <v>8.108108108108311</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L455" t="n">
         <v>49.54000000000006</v>
@@ -23484,7 +23504,7 @@
         <v>87.19999999999989</v>
       </c>
       <c r="K456" t="n">
-        <v>24.32432432432455</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L456" t="n">
         <v>49.51000000000005</v>
@@ -23535,7 +23555,7 @@
         <v>87.2999999999999</v>
       </c>
       <c r="K457" t="n">
-        <v>20.00000000000024</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>49.49000000000005</v>
@@ -23586,7 +23606,7 @@
         <v>87.39999999999989</v>
       </c>
       <c r="K458" t="n">
-        <v>12.50000000000033</v>
+        <v>5.882352941176692</v>
       </c>
       <c r="L458" t="n">
         <v>49.50000000000004</v>
@@ -23637,7 +23657,7 @@
         <v>87.39999999999989</v>
       </c>
       <c r="K459" t="n">
-        <v>16.12903225806469</v>
+        <v>5.882352941176692</v>
       </c>
       <c r="L459" t="n">
         <v>49.51000000000005</v>
@@ -23688,7 +23708,7 @@
         <v>87.7999999999999</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L460" t="n">
         <v>49.48000000000004</v>
@@ -23739,7 +23759,7 @@
         <v>88.09999999999991</v>
       </c>
       <c r="K461" t="n">
-        <v>11.11111111111109</v>
+        <v>25</v>
       </c>
       <c r="L461" t="n">
         <v>49.46000000000004</v>
@@ -23790,7 +23810,7 @@
         <v>88.59999999999991</v>
       </c>
       <c r="K462" t="n">
-        <v>-4.999999999999893</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L462" t="n">
         <v>49.45000000000004</v>
@@ -23841,7 +23861,7 @@
         <v>88.89999999999991</v>
       </c>
       <c r="K463" t="n">
-        <v>-5.000000000000089</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>49.45000000000005</v>
@@ -23892,7 +23912,7 @@
         <v>89.09999999999991</v>
       </c>
       <c r="K464" t="n">
-        <v>-17.94871794871788</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>49.43000000000005</v>
@@ -23943,7 +23963,7 @@
         <v>89.09999999999991</v>
       </c>
       <c r="K465" t="n">
-        <v>-21.05263157894739</v>
+        <v>-15.78947368421021</v>
       </c>
       <c r="L465" t="n">
         <v>49.43000000000006</v>
@@ -23994,7 +24014,7 @@
         <v>89.2999999999999</v>
       </c>
       <c r="K466" t="n">
-        <v>-10.52631578947373</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L466" t="n">
         <v>49.42000000000006</v>
@@ -24045,7 +24065,7 @@
         <v>89.49999999999989</v>
       </c>
       <c r="K467" t="n">
-        <v>-15.00000000000002</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L467" t="n">
         <v>49.38000000000007</v>
@@ -24096,7 +24116,7 @@
         <v>89.49999999999989</v>
       </c>
       <c r="K468" t="n">
-        <v>-10.52631578947377</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L468" t="n">
         <v>49.33000000000007</v>
@@ -24147,7 +24167,7 @@
         <v>89.69999999999989</v>
       </c>
       <c r="K469" t="n">
-        <v>-15.0000000000002</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L469" t="n">
         <v>49.26000000000006</v>
@@ -24198,7 +24218,7 @@
         <v>90.2999999999999</v>
       </c>
       <c r="K470" t="n">
-        <v>-26.08695652173938</v>
+        <v>-54.54545454545495</v>
       </c>
       <c r="L470" t="n">
         <v>49.17000000000007</v>
@@ -24249,7 +24269,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K471" t="n">
-        <v>-28.88888888888901</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L471" t="n">
         <v>49.06000000000007</v>
@@ -24300,7 +24320,7 @@
         <v>90.7999999999999</v>
       </c>
       <c r="K472" t="n">
-        <v>-6.976744186046638</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L472" t="n">
         <v>49.04000000000006</v>
@@ -24351,7 +24371,7 @@
         <v>90.89999999999989</v>
       </c>
       <c r="K473" t="n">
-        <v>-9.523809523809517</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L473" t="n">
         <v>49.00000000000007</v>
@@ -24402,7 +24422,7 @@
         <v>90.99999999999989</v>
       </c>
       <c r="K474" t="n">
-        <v>-11.62790697674423</v>
+        <v>-15.78947368421094</v>
       </c>
       <c r="L474" t="n">
         <v>48.97000000000007</v>
@@ -24453,7 +24473,7 @@
         <v>91.19999999999987</v>
       </c>
       <c r="K475" t="n">
-        <v>-11.62790697674423</v>
+        <v>-36.84210526315811</v>
       </c>
       <c r="L475" t="n">
         <v>48.92000000000007</v>
@@ -24504,7 +24524,7 @@
         <v>91.19999999999987</v>
       </c>
       <c r="K476" t="n">
-        <v>-20</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L476" t="n">
         <v>48.85000000000007</v>
@@ -24555,7 +24575,7 @@
         <v>91.19999999999987</v>
       </c>
       <c r="K477" t="n">
-        <v>-23.07692307692318</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L477" t="n">
         <v>48.80000000000008</v>
@@ -24606,7 +24626,7 @@
         <v>91.59999999999988</v>
       </c>
       <c r="K478" t="n">
-        <v>-14.28571428571436</v>
+        <v>5.26315789473694</v>
       </c>
       <c r="L478" t="n">
         <v>48.79000000000007</v>
@@ -24657,7 +24677,7 @@
         <v>91.99999999999989</v>
       </c>
       <c r="K479" t="n">
-        <v>-21.73913043478263</v>
+        <v>17.64705882352978</v>
       </c>
       <c r="L479" t="n">
         <v>48.76000000000007</v>
@@ -24708,7 +24728,7 @@
         <v>92.09999999999988</v>
       </c>
       <c r="K480" t="n">
-        <v>-16.27906976744183</v>
+        <v>5.882352941176594</v>
       </c>
       <c r="L480" t="n">
         <v>48.78000000000007</v>
@@ -24759,7 +24779,7 @@
         <v>92.69999999999987</v>
       </c>
       <c r="K481" t="n">
-        <v>-34.78260869565246</v>
+        <v>-47.36842105263207</v>
       </c>
       <c r="L481" t="n">
         <v>48.73000000000008</v>
@@ -24810,7 +24830,7 @@
         <v>92.89999999999988</v>
       </c>
       <c r="K482" t="n">
-        <v>-20.93023255813965</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L482" t="n">
         <v>48.66000000000008</v>
@@ -24861,7 +24881,7 @@
         <v>93.09999999999988</v>
       </c>
       <c r="K483" t="n">
-        <v>-33.33333333333351</v>
+        <v>-42.8571428571429</v>
       </c>
       <c r="L483" t="n">
         <v>48.56000000000008</v>
@@ -24912,7 +24932,7 @@
         <v>93.39999999999988</v>
       </c>
       <c r="K484" t="n">
-        <v>-34.88372093023281</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L484" t="n">
         <v>48.44000000000009</v>
@@ -24963,7 +24983,7 @@
         <v>93.69999999999987</v>
       </c>
       <c r="K485" t="n">
-        <v>-26.08695652173938</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L485" t="n">
         <v>48.37000000000009</v>
@@ -25014,7 +25034,7 @@
         <v>93.89999999999988</v>
       </c>
       <c r="K486" t="n">
-        <v>-34.78260869565236</v>
+        <v>-33.33333333333351</v>
       </c>
       <c r="L486" t="n">
         <v>48.28000000000009</v>
@@ -25065,7 +25085,7 @@
         <v>93.99999999999987</v>
       </c>
       <c r="K487" t="n">
-        <v>-33.33333333333344</v>
+        <v>-58.33333333333348</v>
       </c>
       <c r="L487" t="n">
         <v>48.18000000000009</v>
@@ -25116,7 +25136,7 @@
         <v>93.99999999999987</v>
       </c>
       <c r="K488" t="n">
-        <v>-33.33333333333344</v>
+        <v>-50.00000000000036</v>
       </c>
       <c r="L488" t="n">
         <v>48.04000000000009</v>
@@ -25167,7 +25187,7 @@
         <v>94.09999999999987</v>
       </c>
       <c r="K489" t="n">
-        <v>-27.27272727272748</v>
+        <v>-40.0000000000005</v>
       </c>
       <c r="L489" t="n">
         <v>47.95000000000009</v>
@@ -25218,7 +25238,7 @@
         <v>94.19999999999986</v>
       </c>
       <c r="K490" t="n">
-        <v>-17.94871794871801</v>
+        <v>-20</v>
       </c>
       <c r="L490" t="n">
         <v>47.86000000000008</v>
@@ -25269,7 +25289,7 @@
         <v>94.29999999999987</v>
       </c>
       <c r="K491" t="n">
-        <v>-23.07692307692318</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L491" t="n">
         <v>47.82000000000009</v>
@@ -25320,7 +25340,7 @@
         <v>94.39999999999986</v>
       </c>
       <c r="K492" t="n">
-        <v>-38.88888888888922</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L492" t="n">
         <v>47.75000000000009</v>
@@ -25371,7 +25391,7 @@
         <v>94.99999999999986</v>
       </c>
       <c r="K493" t="n">
-        <v>-51.21951219512241</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L493" t="n">
         <v>47.64000000000009</v>
@@ -25422,7 +25442,7 @@
         <v>95.09999999999985</v>
       </c>
       <c r="K494" t="n">
-        <v>-46.3414634146345</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L494" t="n">
         <v>47.57000000000009</v>
@@ -25473,7 +25493,7 @@
         <v>95.19999999999985</v>
       </c>
       <c r="K495" t="n">
-        <v>-45.00000000000043</v>
+        <v>-69.23076923077079</v>
       </c>
       <c r="L495" t="n">
         <v>47.46000000000009</v>
@@ -25524,7 +25544,7 @@
         <v>95.19999999999985</v>
       </c>
       <c r="K496" t="n">
-        <v>-45.00000000000043</v>
+        <v>-66.66666666666843</v>
       </c>
       <c r="L496" t="n">
         <v>47.37000000000009</v>
@@ -25575,7 +25595,7 @@
         <v>95.29999999999984</v>
       </c>
       <c r="K497" t="n">
-        <v>-41.46341463414676</v>
+        <v>-53.84615384615537</v>
       </c>
       <c r="L497" t="n">
         <v>47.3000000000001</v>
@@ -25626,7 +25646,7 @@
         <v>95.29999999999984</v>
       </c>
       <c r="K498" t="n">
-        <v>-56.75675675675741</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L498" t="n">
         <v>47.23000000000009</v>
@@ -25677,7 +25697,7 @@
         <v>95.39999999999984</v>
       </c>
       <c r="K499" t="n">
-        <v>-47.05882352941251</v>
+        <v>-50.00000000000119</v>
       </c>
       <c r="L499" t="n">
         <v>47.16000000000009</v>
@@ -25728,7 +25748,7 @@
         <v>95.39999999999984</v>
       </c>
       <c r="K500" t="n">
-        <v>-45.45454545454608</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L500" t="n">
         <v>47.10000000000009</v>
@@ -25779,7 +25799,7 @@
         <v>95.59999999999984</v>
       </c>
       <c r="K501" t="n">
-        <v>-37.93103448275915</v>
+        <v>-50.00000000000119</v>
       </c>
       <c r="L501" t="n">
         <v>47.03000000000009</v>
@@ -25830,7 +25850,7 @@
         <v>95.69999999999985</v>
       </c>
       <c r="K502" t="n">
-        <v>-42.85714285714344</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L502" t="n">
         <v>46.98000000000009</v>
@@ -25881,7 +25901,7 @@
         <v>95.99999999999984</v>
       </c>
       <c r="K503" t="n">
-        <v>-24.13793103448317</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L503" t="n">
         <v>47.02000000000008</v>
@@ -25932,7 +25952,7 @@
         <v>95.99999999999984</v>
       </c>
       <c r="K504" t="n">
-        <v>-15.3846153846158</v>
+        <v>50</v>
       </c>
       <c r="L504" t="n">
         <v>47.05000000000008</v>
@@ -25983,7 +26003,7 @@
         <v>95.99999999999984</v>
       </c>
       <c r="K505" t="n">
-        <v>-30.43478260869619</v>
+        <v>50</v>
       </c>
       <c r="L505" t="n">
         <v>47.09000000000007</v>
@@ -26034,7 +26054,7 @@
         <v>95.99999999999984</v>
       </c>
       <c r="K506" t="n">
-        <v>-23.8095238095242</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L506" t="n">
         <v>47.13000000000007</v>
@@ -26085,7 +26105,7 @@
         <v>96.29999999999984</v>
       </c>
       <c r="K507" t="n">
-        <v>-4.347826086956642</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L507" t="n">
         <v>47.19000000000008</v>
@@ -26136,7 +26156,7 @@
         <v>96.29999999999984</v>
       </c>
       <c r="K508" t="n">
-        <v>-4.347826086956642</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L508" t="n">
         <v>47.25000000000008</v>
@@ -26187,7 +26207,7 @@
         <v>96.49999999999983</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>63.63636363636358</v>
       </c>
       <c r="L509" t="n">
         <v>47.32000000000007</v>
@@ -26238,7 +26258,7 @@
         <v>96.49999999999983</v>
       </c>
       <c r="K510" t="n">
-        <v>4.347826086956333</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L510" t="n">
         <v>47.39000000000006</v>
@@ -26289,7 +26309,7 @@
         <v>96.49999999999983</v>
       </c>
       <c r="K511" t="n">
-        <v>9.090909090909062</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L511" t="n">
         <v>47.48000000000006</v>
@@ -26340,7 +26360,7 @@
         <v>96.49999999999983</v>
       </c>
       <c r="K512" t="n">
-        <v>14.28571428571438</v>
+        <v>100.0000000000028</v>
       </c>
       <c r="L512" t="n">
         <v>47.56000000000006</v>
@@ -26391,7 +26411,7 @@
         <v>96.59999999999982</v>
       </c>
       <c r="K513" t="n">
-        <v>62.50000000000134</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L513" t="n">
         <v>47.62000000000005</v>
@@ -26442,7 +26462,7 @@
         <v>96.69999999999982</v>
       </c>
       <c r="K514" t="n">
-        <v>62.50000000000134</v>
+        <v>100.0000000000041</v>
       </c>
       <c r="L514" t="n">
         <v>47.69000000000005</v>
@@ -26493,7 +26513,7 @@
         <v>96.89999999999982</v>
       </c>
       <c r="K515" t="n">
-        <v>76.47058823529552</v>
+        <v>100.0000000000032</v>
       </c>
       <c r="L515" t="n">
         <v>47.78000000000004</v>
@@ -26544,7 +26564,7 @@
         <v>96.99999999999982</v>
       </c>
       <c r="K516" t="n">
-        <v>77.77777777777905</v>
+        <v>100.000000000003</v>
       </c>
       <c r="L516" t="n">
         <v>47.88000000000005</v>
@@ -26595,7 +26615,7 @@
         <v>96.99999999999982</v>
       </c>
       <c r="K517" t="n">
-        <v>76.4705882352951</v>
+        <v>100.000000000003</v>
       </c>
       <c r="L517" t="n">
         <v>47.95000000000005</v>
@@ -26646,7 +26666,7 @@
         <v>96.99999999999982</v>
       </c>
       <c r="K518" t="n">
-        <v>76.4705882352951</v>
+        <v>100.0000000000028</v>
       </c>
       <c r="L518" t="n">
         <v>48.02000000000004</v>
@@ -26697,7 +26717,7 @@
         <v>97.19999999999982</v>
       </c>
       <c r="K519" t="n">
-        <v>55.55555555555608</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L519" t="n">
         <v>48.05000000000004</v>
@@ -26748,7 +26768,7 @@
         <v>97.39999999999982</v>
       </c>
       <c r="K520" t="n">
-        <v>40.00000000000014</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L520" t="n">
         <v>48.06000000000004</v>
@@ -26799,7 +26819,7 @@
         <v>97.39999999999982</v>
       </c>
       <c r="K521" t="n">
-        <v>55.55555555555608</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L521" t="n">
         <v>48.07000000000004</v>
@@ -26850,7 +26870,7 @@
         <v>97.59999999999982</v>
       </c>
       <c r="K522" t="n">
-        <v>36.84210526315849</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L522" t="n">
         <v>48.06000000000004</v>
@@ -26901,7 +26921,7 @@
         <v>97.69999999999982</v>
       </c>
       <c r="K523" t="n">
-        <v>29.4117647058828</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L523" t="n">
         <v>48.05000000000005</v>
@@ -26952,7 +26972,7 @@
         <v>97.79999999999981</v>
       </c>
       <c r="K524" t="n">
-        <v>33.33333333333399</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L524" t="n">
         <v>48.04000000000004</v>
@@ -27003,7 +27023,7 @@
         <v>97.79999999999981</v>
       </c>
       <c r="K525" t="n">
-        <v>33.33333333333399</v>
+        <v>-50</v>
       </c>
       <c r="L525" t="n">
         <v>48.01000000000004</v>
@@ -27054,7 +27074,7 @@
         <v>97.9999999999998</v>
       </c>
       <c r="K526" t="n">
-        <v>20.00000000000071</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L526" t="n">
         <v>47.95000000000004</v>
@@ -27105,7 +27125,7 @@
         <v>98.1999999999998</v>
       </c>
       <c r="K527" t="n">
-        <v>-5.263157894737019</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L527" t="n">
         <v>47.87000000000005</v>
@@ -27156,7 +27176,7 @@
         <v>98.1999999999998</v>
       </c>
       <c r="K528" t="n">
-        <v>-5.263157894737019</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L528" t="n">
         <v>47.79000000000005</v>
@@ -27207,7 +27227,7 @@
         <v>98.39999999999981</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.263157894736606</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L529" t="n">
         <v>47.75000000000004</v>
@@ -27258,7 +27278,7 @@
         <v>98.39999999999981</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.263157894736606</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L530" t="n">
         <v>47.73000000000005</v>
@@ -27309,7 +27329,7 @@
         <v>98.4999999999998</v>
       </c>
       <c r="K531" t="n">
-        <v>-9.999999999999929</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L531" t="n">
         <v>47.70000000000006</v>
@@ -27360,7 +27380,7 @@
         <v>98.5999999999998</v>
       </c>
       <c r="K532" t="n">
-        <v>-4.761904761904569</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L532" t="n">
         <v>47.70000000000006</v>
@@ -27411,7 +27431,7 @@
         <v>98.69999999999979</v>
       </c>
       <c r="K533" t="n">
-        <v>-4.761904761904907</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L533" t="n">
         <v>47.70000000000006</v>
@@ -27462,7 +27482,7 @@
         <v>98.89999999999979</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L534" t="n">
         <v>47.71000000000007</v>
@@ -27513,7 +27533,7 @@
         <v>98.9999999999998</v>
       </c>
       <c r="K535" t="n">
-        <v>-4.761904761904875</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L535" t="n">
         <v>47.73000000000008</v>
@@ -27564,7 +27584,7 @@
         <v>99.0999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>-14.28571428571428</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L536" t="n">
         <v>47.76000000000008</v>
@@ -27615,7 +27635,7 @@
         <v>99.2999999999998</v>
       </c>
       <c r="K537" t="n">
-        <v>-21.73913043478277</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L537" t="n">
         <v>47.79000000000008</v>
@@ -27666,7 +27686,7 @@
         <v>99.39999999999979</v>
       </c>
       <c r="K538" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>47.81000000000008</v>
@@ -27717,7 +27737,7 @@
         <v>99.39999999999979</v>
       </c>
       <c r="K539" t="n">
-        <v>-18.18181818181833</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>47.81000000000009</v>
@@ -27768,7 +27788,7 @@
         <v>99.4999999999998</v>
       </c>
       <c r="K540" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>47.80000000000008</v>
@@ -27819,7 +27839,7 @@
         <v>99.4999999999998</v>
       </c>
       <c r="K541" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L541" t="n">
         <v>47.80000000000008</v>
@@ -27870,7 +27890,7 @@
         <v>99.5999999999998</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L542" t="n">
         <v>47.80000000000008</v>
@@ -27921,7 +27941,7 @@
         <v>99.7999999999998</v>
       </c>
       <c r="K543" t="n">
-        <v>-14.28571428571428</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L543" t="n">
         <v>47.77000000000009</v>
@@ -27972,7 +27992,7 @@
         <v>99.7999999999998</v>
       </c>
       <c r="K544" t="n">
-        <v>-20.00000000000007</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L544" t="n">
         <v>47.7200000000001</v>
@@ -28023,7 +28043,7 @@
         <v>99.7999999999998</v>
       </c>
       <c r="K545" t="n">
-        <v>-20.00000000000007</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L545" t="n">
         <v>47.6600000000001</v>
@@ -28074,7 +28094,7 @@
         <v>99.89999999999981</v>
       </c>
       <c r="K546" t="n">
-        <v>-15.7894736842107</v>
+        <v>-66.66666666666549</v>
       </c>
       <c r="L546" t="n">
         <v>47.60000000000009</v>
@@ -28125,7 +28145,7 @@
         <v>100.1999999999998</v>
       </c>
       <c r="K547" t="n">
-        <v>10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>47.5900000000001</v>
@@ -28176,7 +28196,7 @@
         <v>100.2999999999998</v>
       </c>
       <c r="K548" t="n">
-        <v>4.76190476190481</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L548" t="n">
         <v>47.58000000000009</v>
@@ -28227,7 +28247,7 @@
         <v>100.3999999999998</v>
       </c>
       <c r="K549" t="n">
-        <v>-10.00000000000014</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L549" t="n">
         <v>47.56000000000009</v>
@@ -28278,7 +28298,7 @@
         <v>100.3999999999998</v>
       </c>
       <c r="K550" t="n">
-        <v>-10.00000000000014</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L550" t="n">
         <v>47.55000000000008</v>
@@ -28329,7 +28349,7 @@
         <v>100.5999999999998</v>
       </c>
       <c r="K551" t="n">
-        <v>-14.28571428571443</v>
+        <v>-40</v>
       </c>
       <c r="L551" t="n">
         <v>47.52000000000007</v>
@@ -28380,7 +28400,7 @@
         <v>100.8999999999998</v>
       </c>
       <c r="K552" t="n">
-        <v>-30.43478260869563</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L552" t="n">
         <v>47.45000000000007</v>
@@ -28431,7 +28451,7 @@
         <v>101.1999999999998</v>
       </c>
       <c r="K553" t="n">
-        <v>-43.99999999999952</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L553" t="n">
         <v>47.37000000000008</v>
@@ -28482,7 +28502,7 @@
         <v>101.2999999999998</v>
       </c>
       <c r="K554" t="n">
-        <v>-58.3333333333328</v>
+        <v>-59.99999999999933</v>
       </c>
       <c r="L554" t="n">
         <v>47.28000000000007</v>
@@ -28533,7 +28553,7 @@
         <v>101.2999999999998</v>
       </c>
       <c r="K555" t="n">
-        <v>-65.2173913043475</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L555" t="n">
         <v>47.19000000000008</v>
@@ -28584,7 +28604,7 @@
         <v>102.3999999999998</v>
       </c>
       <c r="K556" t="n">
-        <v>-75.75757575757549</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L556" t="n">
         <v>47.00000000000008</v>
@@ -28635,7 +28655,7 @@
         <v>102.6999999999998</v>
       </c>
       <c r="K557" t="n">
-        <v>-58.82352941176461</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L557" t="n">
         <v>46.81000000000007</v>
@@ -28686,7 +28706,7 @@
         <v>102.6999999999998</v>
       </c>
       <c r="K558" t="n">
-        <v>-57.57575757575755</v>
+        <v>-73.91304347826109</v>
       </c>
       <c r="L558" t="n">
         <v>46.63000000000007</v>
@@ -28737,7 +28757,7 @@
         <v>103.1999999999998</v>
       </c>
       <c r="K559" t="n">
-        <v>-36.84210526315793</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L559" t="n">
         <v>46.51000000000007</v>
@@ -28788,7 +28808,7 @@
         <v>103.3999999999998</v>
       </c>
       <c r="K560" t="n">
-        <v>-38.46153846153841</v>
+        <v>-42.85714285714275</v>
       </c>
       <c r="L560" t="n">
         <v>46.37000000000008</v>
@@ -28839,7 +28859,7 @@
         <v>103.4999999999998</v>
       </c>
       <c r="K561" t="n">
-        <v>-34.99999999999996</v>
+        <v>-30.76923076923073</v>
       </c>
       <c r="L561" t="n">
         <v>46.26000000000007</v>
@@ -28890,7 +28910,7 @@
         <v>103.5999999999998</v>
       </c>
       <c r="K562" t="n">
-        <v>-40.00000000000004</v>
+        <v>-25.00000000000015</v>
       </c>
       <c r="L562" t="n">
         <v>46.17000000000007</v>
@@ -28941,7 +28961,7 @@
         <v>103.8999999999998</v>
       </c>
       <c r="K563" t="n">
-        <v>-41.46341463414632</v>
+        <v>-30.769230769231</v>
       </c>
       <c r="L563" t="n">
         <v>46.08000000000008</v>
@@ -28992,7 +29012,7 @@
         <v>104.0999999999998</v>
       </c>
       <c r="K564" t="n">
-        <v>-44.1860465116279</v>
+        <v>-35.71428571428593</v>
       </c>
       <c r="L564" t="n">
         <v>45.98000000000008</v>
@@ -29043,7 +29063,7 @@
         <v>104.1999999999998</v>
       </c>
       <c r="K565" t="n">
-        <v>-45.45454545454554</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>45.87000000000008</v>
@@ -29094,7 +29114,7 @@
         <v>104.1999999999998</v>
       </c>
       <c r="K566" t="n">
-        <v>-44.18604651162805</v>
+        <v>-20</v>
       </c>
       <c r="L566" t="n">
         <v>45.87000000000008</v>
@@ -29145,7 +29165,7 @@
         <v>104.1999999999998</v>
       </c>
       <c r="K567" t="n">
-        <v>-55.00000000000046</v>
+        <v>-20</v>
       </c>
       <c r="L567" t="n">
         <v>45.84000000000007</v>
@@ -29196,7 +29216,7 @@
         <v>104.3999999999998</v>
       </c>
       <c r="K568" t="n">
-        <v>-46.34146341463434</v>
+        <v>-50</v>
       </c>
       <c r="L568" t="n">
         <v>45.83000000000007</v>
@@ -29247,7 +29267,7 @@
         <v>104.4999999999998</v>
       </c>
       <c r="K569" t="n">
-        <v>-46.34146341463418</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L569" t="n">
         <v>45.76000000000007</v>
@@ -29298,7 +29318,7 @@
         <v>104.6999999999998</v>
       </c>
       <c r="K570" t="n">
-        <v>-39.53488372093046</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L570" t="n">
         <v>45.73000000000007</v>
@@ -29349,7 +29369,7 @@
         <v>105.1999999999998</v>
       </c>
       <c r="K571" t="n">
-        <v>-21.7391304347827</v>
+        <v>12.49999999999978</v>
       </c>
       <c r="L571" t="n">
         <v>45.74000000000007</v>
@@ -29400,7 +29420,7 @@
         <v>105.2999999999998</v>
       </c>
       <c r="K572" t="n">
-        <v>-13.63636363636374</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L572" t="n">
         <v>45.77000000000007</v>
@@ -29451,7 +29471,7 @@
         <v>105.5999999999998</v>
       </c>
       <c r="K573" t="n">
-        <v>0</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L573" t="n">
         <v>45.86000000000006</v>
@@ -29502,7 +29522,7 @@
         <v>105.7999999999998</v>
       </c>
       <c r="K574" t="n">
-        <v>-2.222222222222261</v>
+        <v>62.49999999999967</v>
       </c>
       <c r="L574" t="n">
         <v>45.95000000000006</v>
@@ -29553,7 +29573,7 @@
         <v>106.5999999999998</v>
       </c>
       <c r="K575" t="n">
-        <v>-16.98113207547172</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L575" t="n">
         <v>45.97000000000006</v>
@@ -29604,7 +29624,7 @@
         <v>106.8999999999998</v>
       </c>
       <c r="K576" t="n">
-        <v>11.11111111111115</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L576" t="n">
         <v>46.02000000000006</v>
@@ -29655,7 +29675,7 @@
         <v>106.8999999999998</v>
       </c>
       <c r="K577" t="n">
-        <v>4.761904761904842</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L577" t="n">
         <v>46.07000000000006</v>
@@ -29706,7 +29726,7 @@
         <v>106.8999999999998</v>
       </c>
       <c r="K578" t="n">
-        <v>4.761904761904842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L578" t="n">
         <v>46.10000000000007</v>
@@ -29757,7 +29777,7 @@
         <v>106.8999999999998</v>
       </c>
       <c r="K579" t="n">
-        <v>-8.108108108108055</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L579" t="n">
         <v>46.14000000000006</v>
@@ -29808,7 +29828,7 @@
         <v>107.1999999999998</v>
       </c>
       <c r="K580" t="n">
-        <v>5.263157894736754</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>46.19000000000006</v>
@@ -29859,7 +29879,7 @@
         <v>107.3999999999998</v>
       </c>
       <c r="K581" t="n">
-        <v>-2.564102564102615</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L581" t="n">
         <v>46.17000000000006</v>
@@ -29910,7 +29930,7 @@
         <v>107.6999999999998</v>
       </c>
       <c r="K582" t="n">
-        <v>7.317073170731674</v>
+        <v>-14.28571428571462</v>
       </c>
       <c r="L582" t="n">
         <v>46.17000000000006</v>
@@ -29961,7 +29981,7 @@
         <v>107.8999999999998</v>
       </c>
       <c r="K583" t="n">
-        <v>10.00000000000021</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L583" t="n">
         <v>46.12000000000006</v>
@@ -30012,7 +30032,7 @@
         <v>107.9999999999998</v>
       </c>
       <c r="K584" t="n">
-        <v>17.94871794871794</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L584" t="n">
         <v>46.10000000000007</v>
@@ -30063,7 +30083,7 @@
         <v>108.0999999999998</v>
       </c>
       <c r="K585" t="n">
-        <v>17.94871794871813</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L585" t="n">
         <v>46.15000000000006</v>
@@ -30114,7 +30134,7 @@
         <v>108.1999999999998</v>
       </c>
       <c r="K586" t="n">
-        <v>20.00000000000007</v>
+        <v>23.07692307692341</v>
       </c>
       <c r="L586" t="n">
         <v>46.18000000000006</v>
@@ -30165,7 +30185,7 @@
         <v>108.3999999999998</v>
       </c>
       <c r="K587" t="n">
-        <v>23.80952380952396</v>
+        <v>33.33333333333396</v>
       </c>
       <c r="L587" t="n">
         <v>46.23000000000006</v>
@@ -30216,7 +30236,7 @@
         <v>108.4999999999998</v>
       </c>
       <c r="K588" t="n">
-        <v>17.0731707317073</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L588" t="n">
         <v>46.27000000000006</v>
@@ -30267,7 +30287,7 @@
         <v>108.4999999999998</v>
       </c>
       <c r="K589" t="n">
-        <v>20.00000000000007</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L589" t="n">
         <v>46.31000000000006</v>
@@ -30318,7 +30338,7 @@
         <v>108.8999999999998</v>
       </c>
       <c r="K590" t="n">
-        <v>4.761904761904842</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L590" t="n">
         <v>46.28000000000006</v>
@@ -30369,7 +30389,7 @@
         <v>108.8999999999998</v>
       </c>
       <c r="K591" t="n">
-        <v>-8.108108108108055</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L591" t="n">
         <v>46.27000000000005</v>
@@ -30420,7 +30440,7 @@
         <v>109.0999999999998</v>
       </c>
       <c r="K592" t="n">
-        <v>-5.263157894736733</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>46.25000000000006</v>
@@ -30471,7 +30491,7 @@
         <v>109.3999999999998</v>
       </c>
       <c r="K593" t="n">
-        <v>-5.26315789473694</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L593" t="n">
         <v>46.28000000000006</v>
@@ -30522,7 +30542,7 @@
         <v>109.3999999999998</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L594" t="n">
         <v>46.30000000000005</v>
@@ -30573,7 +30593,7 @@
         <v>109.3999999999998</v>
       </c>
       <c r="K595" t="n">
-        <v>28.57142857142864</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L595" t="n">
         <v>46.33000000000006</v>
@@ -30624,7 +30644,7 @@
         <v>109.4999999999998</v>
       </c>
       <c r="K596" t="n">
-        <v>15.38461538461545</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L596" t="n">
         <v>46.34000000000005</v>
@@ -30675,7 +30695,7 @@
         <v>109.6999999999998</v>
       </c>
       <c r="K597" t="n">
-        <v>21.42857142857161</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L597" t="n">
         <v>46.35000000000006</v>
@@ -30726,7 +30746,7 @@
         <v>109.7999999999998</v>
       </c>
       <c r="K598" t="n">
-        <v>17.24137931034488</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L598" t="n">
         <v>46.36000000000006</v>
@@ -30777,7 +30797,7 @@
         <v>109.8999999999998</v>
       </c>
       <c r="K599" t="n">
-        <v>13.33333333333335</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L599" t="n">
         <v>46.36000000000006</v>
@@ -30828,7 +30848,7 @@
         <v>109.8999999999998</v>
       </c>
       <c r="K600" t="n">
-        <v>3.703703703703772</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L600" t="n">
         <v>46.40000000000006</v>
@@ -30879,7 +30899,7 @@
         <v>109.8999999999998</v>
       </c>
       <c r="K601" t="n">
-        <v>11.99999999999989</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L601" t="n">
         <v>46.44000000000005</v>
@@ -30930,7 +30950,7 @@
         <v>110.2999999999998</v>
       </c>
       <c r="K602" t="n">
-        <v>15.38461538461528</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L602" t="n">
         <v>46.50000000000006</v>
@@ -30981,7 +31001,7 @@
         <v>110.5999999999998</v>
       </c>
       <c r="K603" t="n">
-        <v>11.11111111111099</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>46.50000000000006</v>
@@ -31032,7 +31052,7 @@
         <v>110.6999999999998</v>
       </c>
       <c r="K604" t="n">
-        <v>11.1111111111112</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L604" t="n">
         <v>46.51000000000006</v>
@@ -31083,7 +31103,7 @@
         <v>110.7999999999998</v>
       </c>
       <c r="K605" t="n">
-        <v>11.11111111111093</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L605" t="n">
         <v>46.51000000000006</v>
@@ -31134,7 +31154,7 @@
         <v>111.0999999999998</v>
       </c>
       <c r="K606" t="n">
-        <v>17.24137931034471</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L606" t="n">
         <v>46.55000000000006</v>
@@ -31185,7 +31205,7 @@
         <v>111.4999999999998</v>
       </c>
       <c r="K607" t="n">
-        <v>-3.22580645161294</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L607" t="n">
         <v>46.53000000000006</v>
@@ -31236,7 +31256,7 @@
         <v>112.0999999999998</v>
       </c>
       <c r="K608" t="n">
-        <v>16.66666666666673</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L608" t="n">
         <v>46.58000000000006</v>
@@ -31287,7 +31307,7 @@
         <v>112.1999999999998</v>
       </c>
       <c r="K609" t="n">
-        <v>18.91891891891905</v>
+        <v>30.434782608696</v>
       </c>
       <c r="L609" t="n">
         <v>46.65000000000007</v>
@@ -31338,7 +31358,7 @@
         <v>112.2999999999998</v>
       </c>
       <c r="K610" t="n">
-        <v>35.29411764705914</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L610" t="n">
         <v>46.73000000000008</v>
@@ -31389,7 +31409,7 @@
         <v>112.5999999999998</v>
       </c>
       <c r="K611" t="n">
-        <v>40.54054054054082</v>
+        <v>30.43478260869619</v>
       </c>
       <c r="L611" t="n">
         <v>46.84000000000007</v>
@@ -31440,7 +31460,7 @@
         <v>112.5999999999998</v>
       </c>
       <c r="K612" t="n">
-        <v>37.14285714285736</v>
+        <v>50.00000000000071</v>
       </c>
       <c r="L612" t="n">
         <v>46.91000000000007</v>
@@ -31491,7 +31511,7 @@
         <v>112.6999999999998</v>
       </c>
       <c r="K613" t="n">
-        <v>27.27272727272737</v>
+        <v>40.00000000000043</v>
       </c>
       <c r="L613" t="n">
         <v>47.00000000000008</v>
@@ -31542,7 +31562,7 @@
         <v>112.6999999999998</v>
       </c>
       <c r="K614" t="n">
-        <v>27.27272727272737</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L614" t="n">
         <v>47.08000000000008</v>
@@ -31593,7 +31613,7 @@
         <v>113.0999999999998</v>
       </c>
       <c r="K615" t="n">
-        <v>13.51351351351356</v>
+        <v>10.00000000000021</v>
       </c>
       <c r="L615" t="n">
         <v>47.13000000000007</v>
@@ -31644,7 +31664,7 @@
         <v>113.1999999999998</v>
       </c>
       <c r="K616" t="n">
-        <v>18.91891891891905</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L616" t="n">
         <v>47.16000000000007</v>
@@ -31695,7 +31715,7 @@
         <v>113.1999999999998</v>
       </c>
       <c r="K617" t="n">
-        <v>14.28571428571434</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L617" t="n">
         <v>47.23000000000008</v>
@@ -31746,7 +31766,7 @@
         <v>113.3999999999998</v>
       </c>
       <c r="K618" t="n">
-        <v>11.11111111111113</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L618" t="n">
         <v>47.22000000000007</v>
@@ -31797,7 +31817,7 @@
         <v>113.4999999999998</v>
       </c>
       <c r="K619" t="n">
-        <v>16.66666666666673</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L619" t="n">
         <v>47.21000000000007</v>
@@ -31848,7 +31868,7 @@
         <v>113.5999999999998</v>
       </c>
       <c r="K620" t="n">
-        <v>18.91891891891905</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L620" t="n">
         <v>47.20000000000007</v>
@@ -31899,7 +31919,7 @@
         <v>113.5999999999998</v>
       </c>
       <c r="K621" t="n">
-        <v>18.91891891891905</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L621" t="n">
         <v>47.16000000000007</v>
@@ -31950,7 +31970,7 @@
         <v>113.6999999999998</v>
       </c>
       <c r="K622" t="n">
-        <v>5.882352941176594</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L622" t="n">
         <v>47.11000000000007</v>
@@ -32001,7 +32021,7 @@
         <v>114.0999999999998</v>
       </c>
       <c r="K623" t="n">
-        <v>2.85714285714291</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L623" t="n">
         <v>47.03000000000007</v>
@@ -32052,7 +32072,7 @@
         <v>114.0999999999998</v>
       </c>
       <c r="K624" t="n">
-        <v>0</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L624" t="n">
         <v>46.95000000000008</v>
@@ -32103,7 +32123,7 @@
         <v>114.4999999999998</v>
       </c>
       <c r="K625" t="n">
-        <v>13.51351351351356</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L625" t="n">
         <v>46.95000000000008</v>
@@ -32154,7 +32174,7 @@
         <v>114.5999999999998</v>
       </c>
       <c r="K626" t="n">
-        <v>8.571428571428727</v>
+        <v>0</v>
       </c>
       <c r="L626" t="n">
         <v>46.95000000000008</v>
@@ -32205,7 +32225,7 @@
         <v>114.5999999999998</v>
       </c>
       <c r="K627" t="n">
-        <v>22.58064516129046</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L627" t="n">
         <v>46.95000000000008</v>
@@ -32256,7 +32276,7 @@
         <v>114.5999999999998</v>
       </c>
       <c r="K628" t="n">
-        <v>4.000000000000057</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L628" t="n">
         <v>46.97000000000008</v>
@@ -32307,7 +32327,7 @@
         <v>114.6999999999998</v>
       </c>
       <c r="K629" t="n">
-        <v>-4.000000000000057</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L629" t="n">
         <v>46.97000000000008</v>
@@ -32358,7 +32378,7 @@
         <v>114.7999999999998</v>
       </c>
       <c r="K630" t="n">
-        <v>-12.00000000000017</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L630" t="n">
         <v>46.95000000000008</v>
@@ -32409,7 +32429,7 @@
         <v>114.7999999999998</v>
       </c>
       <c r="K631" t="n">
-        <v>-27.27272727272731</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L631" t="n">
         <v>46.93000000000008</v>
@@ -32460,7 +32480,7 @@
         <v>114.8999999999997</v>
       </c>
       <c r="K632" t="n">
-        <v>-21.73913043478263</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L632" t="n">
         <v>46.93000000000008</v>
@@ -32511,7 +32531,7 @@
         <v>114.9999999999997</v>
       </c>
       <c r="K633" t="n">
-        <v>-13.04347826086954</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L633" t="n">
         <v>46.98000000000008</v>
@@ -32562,7 +32582,7 @@
         <v>115.1999999999997</v>
       </c>
       <c r="K634" t="n">
-        <v>-4.000000000000102</v>
+        <v>42.85714285714489</v>
       </c>
       <c r="L634" t="n">
         <v>47.05000000000007</v>
@@ -32613,7 +32633,7 @@
         <v>115.2999999999997</v>
       </c>
       <c r="K635" t="n">
-        <v>18.18181818181845</v>
+        <v>42.85714285714489</v>
       </c>
       <c r="L635" t="n">
         <v>47.09000000000007</v>
@@ -32664,7 +32684,7 @@
         <v>115.4999999999997</v>
       </c>
       <c r="K636" t="n">
-        <v>4.34782608695667</v>
+        <v>11.1111111111119</v>
       </c>
       <c r="L636" t="n">
         <v>47.10000000000007</v>
@@ -32715,7 +32735,7 @@
         <v>115.6999999999997</v>
       </c>
       <c r="K637" t="n">
-        <v>12.00000000000016</v>
+        <v>27.27272727272856</v>
       </c>
       <c r="L637" t="n">
         <v>47.13000000000007</v>
@@ -32766,7 +32786,7 @@
         <v>115.8999999999997</v>
       </c>
       <c r="K638" t="n">
-        <v>12.00000000000051</v>
+        <v>16.66666666666785</v>
       </c>
       <c r="L638" t="n">
         <v>47.14000000000006</v>
@@ -32817,7 +32837,7 @@
         <v>116.0999999999997</v>
       </c>
       <c r="K639" t="n">
-        <v>15.38461538461587</v>
+        <v>38.46153846154065</v>
       </c>
       <c r="L639" t="n">
         <v>47.18000000000006</v>
@@ -32868,7 +32888,7 @@
         <v>116.2999999999997</v>
       </c>
       <c r="K640" t="n">
-        <v>18.51851851851908</v>
+        <v>46.66666666666907</v>
       </c>
       <c r="L640" t="n">
         <v>47.25000000000007</v>
@@ -32919,7 +32939,7 @@
         <v>116.2999999999997</v>
       </c>
       <c r="K641" t="n">
-        <v>18.51851851851908</v>
+        <v>42.85714285714496</v>
       </c>
       <c r="L641" t="n">
         <v>47.32000000000007</v>
@@ -32970,7 +32990,7 @@
         <v>116.3999999999997</v>
       </c>
       <c r="K642" t="n">
-        <v>18.51851851851899</v>
+        <v>28.57142857142951</v>
       </c>
       <c r="L642" t="n">
         <v>47.37000000000008</v>
@@ -33021,7 +33041,7 @@
         <v>116.4999999999997</v>
       </c>
       <c r="K643" t="n">
-        <v>33.33333333333432</v>
+        <v>7.69230769230807</v>
       </c>
       <c r="L643" t="n">
         <v>47.40000000000007</v>
@@ -33072,7 +33092,7 @@
         <v>116.8999999999997</v>
       </c>
       <c r="K644" t="n">
-        <v>42.85714285714383</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L644" t="n">
         <v>47.45000000000006</v>
@@ -33123,7 +33143,7 @@
         <v>117.0999999999997</v>
       </c>
       <c r="K645" t="n">
-        <v>23.07692307692394</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L645" t="n">
         <v>47.47000000000006</v>
@@ -33174,7 +33194,7 @@
         <v>117.1999999999997</v>
       </c>
       <c r="K646" t="n">
-        <v>15.38461538461587</v>
+        <v>6.666666666666887</v>
       </c>
       <c r="L646" t="n">
         <v>47.50000000000006</v>
@@ -33225,7 +33245,7 @@
         <v>117.5999999999997</v>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L647" t="n">
         <v>47.47000000000006</v>
@@ -33276,7 +33296,7 @@
         <v>117.6999999999997</v>
       </c>
       <c r="K648" t="n">
-        <v>3.225806451613044</v>
+        <v>-12.49999999999978</v>
       </c>
       <c r="L648" t="n">
         <v>47.47000000000007</v>
@@ -33327,7 +33347,7 @@
         <v>117.6999999999997</v>
       </c>
       <c r="K649" t="n">
-        <v>6.666666666666951</v>
+        <v>-28.57142857142864</v>
       </c>
       <c r="L649" t="n">
         <v>47.45000000000007</v>
@@ -33378,7 +33398,7 @@
         <v>117.7999999999997</v>
       </c>
       <c r="K650" t="n">
-        <v>6.666666666666951</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L650" t="n">
         <v>47.40000000000007</v>
@@ -33429,7 +33449,7 @@
         <v>117.8999999999997</v>
       </c>
       <c r="K651" t="n">
-        <v>3.225806451613044</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L651" t="n">
         <v>47.34000000000007</v>
@@ -33480,7 +33500,7 @@
         <v>118.0999999999997</v>
       </c>
       <c r="K652" t="n">
-        <v>-6.25000000000025</v>
+        <v>-37.50000000000055</v>
       </c>
       <c r="L652" t="n">
         <v>47.27000000000006</v>
@@ -33531,7 +33551,7 @@
         <v>118.2999999999997</v>
       </c>
       <c r="K653" t="n">
-        <v>-15.15151515151549</v>
+        <v>-85.7142857142868</v>
       </c>
       <c r="L653" t="n">
         <v>47.19000000000007</v>
@@ -33582,7 +33602,7 @@
         <v>118.2999999999997</v>
       </c>
       <c r="K654" t="n">
-        <v>-22.58064516129064</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L654" t="n">
         <v>47.07000000000006</v>
@@ -33633,7 +33653,7 @@
         <v>118.2999999999997</v>
       </c>
       <c r="K655" t="n">
-        <v>-26.66666666666708</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L655" t="n">
         <v>46.97000000000006</v>
@@ -33684,7 +33704,7 @@
         <v>118.4999999999997</v>
       </c>
       <c r="K656" t="n">
-        <v>-13.33333333333377</v>
+        <v>-33.33333333333465</v>
       </c>
       <c r="L656" t="n">
         <v>46.90000000000006</v>
@@ -33735,7 +33755,7 @@
         <v>118.7999999999997</v>
       </c>
       <c r="K657" t="n">
-        <v>-29.03225806451654</v>
+        <v>-63.63636363636505</v>
       </c>
       <c r="L657" t="n">
         <v>46.84000000000005</v>
@@ -33786,7 +33806,7 @@
         <v>118.9999999999997</v>
       </c>
       <c r="K658" t="n">
-        <v>-29.03225806451663</v>
+        <v>-69.23076923077058</v>
       </c>
       <c r="L658" t="n">
         <v>46.75000000000005</v>
@@ -33837,7 +33857,7 @@
         <v>118.9999999999997</v>
       </c>
       <c r="K659" t="n">
-        <v>-37.93103448275897</v>
+        <v>-66.66666666666765</v>
       </c>
       <c r="L659" t="n">
         <v>46.66000000000005</v>
@@ -33888,7 +33908,7 @@
         <v>119.2999999999997</v>
       </c>
       <c r="K660" t="n">
-        <v>-53.33333333333389</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L660" t="n">
         <v>46.55000000000005</v>
@@ -33939,7 +33959,7 @@
         <v>119.2999999999997</v>
       </c>
       <c r="K661" t="n">
-        <v>-53.33333333333389</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L661" t="n">
         <v>46.45000000000006</v>
@@ -33990,7 +34010,7 @@
         <v>119.4999999999997</v>
       </c>
       <c r="K662" t="n">
-        <v>-41.93548387096811</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L662" t="n">
         <v>46.39000000000006</v>
@@ -34041,7 +34061,7 @@
         <v>119.9999999999997</v>
       </c>
       <c r="K663" t="n">
-        <v>-48.57142857142884</v>
+        <v>-52.9411764705885</v>
       </c>
       <c r="L663" t="n">
         <v>46.30000000000005</v>
@@ -34092,7 +34112,7 @@
         <v>120.0999999999997</v>
       </c>
       <c r="K664" t="n">
-        <v>-62.50000000000077</v>
+        <v>-44.4444444444451</v>
       </c>
       <c r="L664" t="n">
         <v>46.22000000000005</v>
@@ -34143,7 +34163,7 @@
         <v>120.6999999999996</v>
       </c>
       <c r="K665" t="n">
-        <v>-33.33333333333373</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L665" t="n">
         <v>46.20000000000005</v>
@@ -34194,7 +34214,7 @@
         <v>120.7999999999996</v>
       </c>
       <c r="K666" t="n">
-        <v>-33.33333333333373</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L666" t="n">
         <v>46.15000000000005</v>
@@ -34245,7 +34265,7 @@
         <v>121.1999999999996</v>
       </c>
       <c r="K667" t="n">
-        <v>-33.33333333333373</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L667" t="n">
         <v>46.09000000000005</v>
@@ -34296,7 +34316,7 @@
         <v>121.1999999999996</v>
       </c>
       <c r="K668" t="n">
-        <v>-37.14285714285757</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L668" t="n">
         <v>46.05000000000004</v>
@@ -34347,7 +34367,7 @@
         <v>121.2999999999996</v>
       </c>
       <c r="K669" t="n">
-        <v>-38.88888888888942</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L669" t="n">
         <v>46.00000000000004</v>
@@ -34398,7 +34418,7 @@
         <v>121.2999999999996</v>
       </c>
       <c r="K670" t="n">
-        <v>-37.14285714285757</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L670" t="n">
         <v>45.98000000000004</v>
@@ -34449,7 +34469,7 @@
         <v>121.3999999999996</v>
       </c>
       <c r="K671" t="n">
-        <v>-31.42857142857172</v>
+        <v>-15.78947368421094</v>
       </c>
       <c r="L671" t="n">
         <v>45.97000000000004</v>
@@ -34500,7 +34520,7 @@
         <v>121.4999999999996</v>
       </c>
       <c r="K672" t="n">
-        <v>-29.41176470588267</v>
+        <v>6.666666666666414</v>
       </c>
       <c r="L672" t="n">
         <v>45.93000000000004</v>
@@ -34551,7 +34571,7 @@
         <v>121.4999999999996</v>
       </c>
       <c r="K673" t="n">
-        <v>-25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L673" t="n">
         <v>45.94000000000004</v>
@@ -34602,7 +34622,7 @@
         <v>121.6999999999996</v>
       </c>
       <c r="K674" t="n">
-        <v>-29.4117647058828</v>
+        <v>-80.00000000000199</v>
       </c>
       <c r="L674" t="n">
         <v>45.92000000000004</v>
@@ -34653,7 +34673,7 @@
         <v>121.6999999999996</v>
       </c>
       <c r="K675" t="n">
-        <v>-29.4117647058828</v>
+        <v>-77.77777777777926</v>
       </c>
       <c r="L675" t="n">
         <v>45.84000000000005</v>
@@ -34704,7 +34724,7 @@
         <v>121.8999999999996</v>
       </c>
       <c r="K676" t="n">
-        <v>-29.4117647058828</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L676" t="n">
         <v>45.79000000000005</v>
@@ -34755,7 +34775,7 @@
         <v>122.1999999999996</v>
       </c>
       <c r="K677" t="n">
-        <v>-29.4117647058828</v>
+        <v>-40.00000000000156</v>
       </c>
       <c r="L677" t="n">
         <v>45.75000000000005</v>
@@ -34806,7 +34826,7 @@
         <v>122.2999999999996</v>
       </c>
       <c r="K678" t="n">
-        <v>-27.2727272727276</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L678" t="n">
         <v>45.70000000000005</v>
@@ -34857,7 +34877,7 @@
         <v>122.3999999999996</v>
       </c>
       <c r="K679" t="n">
-        <v>-23.52941176470615</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L679" t="n">
         <v>45.67000000000005</v>
@@ -34908,7 +34928,7 @@
         <v>122.6999999999996</v>
       </c>
       <c r="K680" t="n">
-        <v>-23.52941176470615</v>
+        <v>-53.84615384615481</v>
       </c>
       <c r="L680" t="n">
         <v>45.61000000000005</v>
@@ -34959,7 +34979,7 @@
         <v>123.9999999999996</v>
       </c>
       <c r="K681" t="n">
-        <v>-44.68085106383033</v>
+        <v>-76.00000000000081</v>
       </c>
       <c r="L681" t="n">
         <v>45.41000000000005</v>
@@ -35010,7 +35030,7 @@
         <v>124.4999999999996</v>
       </c>
       <c r="K682" t="n">
-        <v>-36.00000000000049</v>
+        <v>-46.66666666666706</v>
       </c>
       <c r="L682" t="n">
         <v>45.27000000000005</v>
@@ -35061,7 +35081,7 @@
         <v>124.8999999999996</v>
       </c>
       <c r="K683" t="n">
-        <v>-34.69387755102083</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L683" t="n">
         <v>45.09000000000005</v>
@@ -35112,7 +35132,7 @@
         <v>124.9999999999996</v>
       </c>
       <c r="K684" t="n">
-        <v>-34.69387755102068</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L684" t="n">
         <v>44.94000000000004</v>
@@ -35163,7 +35183,7 @@
         <v>125.0999999999996</v>
       </c>
       <c r="K685" t="n">
-        <v>-50.00000000000049</v>
+        <v>-50</v>
       </c>
       <c r="L685" t="n">
         <v>44.80000000000004</v>
@@ -35214,7 +35234,7 @@
         <v>125.4999999999996</v>
       </c>
       <c r="K686" t="n">
-        <v>-53.19148936170258</v>
+        <v>-51.51515151515164</v>
       </c>
       <c r="L686" t="n">
         <v>44.60000000000004</v>
@@ -35265,7 +35285,7 @@
         <v>126.0999999999996</v>
       </c>
       <c r="K687" t="n">
-        <v>-30.6122448979595</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L687" t="n">
         <v>44.49000000000004</v>
@@ -35316,7 +35336,7 @@
         <v>126.3999999999996</v>
       </c>
       <c r="K688" t="n">
-        <v>-23.07692307692317</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L688" t="n">
         <v>44.42000000000004</v>
@@ -35367,7 +35387,7 @@
         <v>126.6999999999996</v>
       </c>
       <c r="K689" t="n">
-        <v>-25.92592592592601</v>
+        <v>-20.00000000000004</v>
       </c>
       <c r="L689" t="n">
         <v>44.31000000000004</v>
@@ -35418,7 +35438,7 @@
         <v>126.6999999999996</v>
       </c>
       <c r="K690" t="n">
-        <v>-25.92592592592601</v>
+        <v>18.5185185185184</v>
       </c>
       <c r="L690" t="n">
         <v>44.23000000000003</v>
@@ -35469,7 +35489,7 @@
         <v>126.9999999999996</v>
       </c>
       <c r="K691" t="n">
-        <v>-32.14285714285721</v>
+        <v>-11.99999999999982</v>
       </c>
       <c r="L691" t="n">
         <v>44.25000000000004</v>
@@ -35520,7 +35540,7 @@
         <v>127.4999999999996</v>
       </c>
       <c r="K692" t="n">
-        <v>-19.99999999999998</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L692" t="n">
         <v>44.27000000000005</v>
@@ -35571,7 +35591,7 @@
         <v>127.8999999999996</v>
       </c>
       <c r="K693" t="n">
-        <v>-25</v>
+        <v>3.448275862069008</v>
       </c>
       <c r="L693" t="n">
         <v>44.29000000000004</v>
@@ -35622,7 +35642,7 @@
         <v>128.0999999999996</v>
       </c>
       <c r="K694" t="n">
-        <v>-18.75000000000011</v>
+        <v>6.666666666666525</v>
       </c>
       <c r="L694" t="n">
         <v>44.32000000000004</v>
@@ -35673,7 +35693,7 @@
         <v>128.2999999999996</v>
       </c>
       <c r="K695" t="n">
-        <v>-21.2121212121213</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L695" t="n">
         <v>44.32000000000004</v>
@@ -35724,7 +35744,7 @@
         <v>128.6999999999996</v>
       </c>
       <c r="K696" t="n">
-        <v>-17.64705882352939</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L696" t="n">
         <v>44.40000000000004</v>
@@ -35775,7 +35795,7 @@
         <v>128.6999999999996</v>
       </c>
       <c r="K697" t="n">
-        <v>-13.84615384615386</v>
+        <v>-4.347826086956616</v>
       </c>
       <c r="L697" t="n">
         <v>44.42000000000004</v>
@@ -35826,7 +35846,7 @@
         <v>129.0999999999996</v>
       </c>
       <c r="K698" t="n">
-        <v>-17.64705882352939</v>
+        <v>-8.333333333333234</v>
       </c>
       <c r="L698" t="n">
         <v>44.37000000000005</v>
@@ -35877,7 +35897,7 @@
         <v>129.4999999999996</v>
       </c>
       <c r="K699" t="n">
-        <v>-12.67605633802816</v>
+        <v>7.142857142857288</v>
       </c>
       <c r="L699" t="n">
         <v>44.39000000000005</v>
@@ -35928,7 +35948,7 @@
         <v>129.4999999999996</v>
       </c>
       <c r="K700" t="n">
-        <v>-8.82352941176473</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L700" t="n">
         <v>44.41000000000005</v>
@@ -35979,7 +35999,7 @@
         <v>129.6999999999996</v>
       </c>
       <c r="K701" t="n">
-        <v>8.771929824561422</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L701" t="n">
         <v>44.44000000000005</v>
@@ -36030,7 +36050,7 @@
         <v>130.0999999999996</v>
       </c>
       <c r="K702" t="n">
-        <v>7.142857142857125</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L702" t="n">
         <v>44.46000000000005</v>
@@ -36081,7 +36101,7 @@
         <v>130.4999999999996</v>
       </c>
       <c r="K703" t="n">
-        <v>7.142857142857125</v>
+        <v>0</v>
       </c>
       <c r="L703" t="n">
         <v>44.48000000000005</v>
@@ -36132,7 +36152,7 @@
         <v>130.8999999999996</v>
       </c>
       <c r="K704" t="n">
-        <v>11.86440677966093</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L704" t="n">
         <v>44.52000000000005</v>
@@ -36183,7 +36203,7 @@
         <v>131.1999999999996</v>
       </c>
       <c r="K705" t="n">
-        <v>4.918032786885204</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L705" t="n">
         <v>44.55000000000005</v>
@@ -36234,7 +36254,7 @@
         <v>131.4999999999996</v>
       </c>
       <c r="K706" t="n">
-        <v>16.66666666666666</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L706" t="n">
         <v>44.57000000000005</v>
@@ -36285,7 +36305,7 @@
         <v>131.5999999999996</v>
       </c>
       <c r="K707" t="n">
-        <v>5.454545454545532</v>
+        <v>20</v>
       </c>
       <c r="L707" t="n">
         <v>44.58000000000005</v>
@@ -36336,7 +36356,7 @@
         <v>131.8999999999996</v>
       </c>
       <c r="K708" t="n">
-        <v>-5.454545454545532</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L708" t="n">
         <v>44.60000000000004</v>
@@ -36387,7 +36407,7 @@
         <v>131.8999999999996</v>
       </c>
       <c r="K709" t="n">
-        <v>0</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L709" t="n">
         <v>44.58000000000004</v>
@@ -36438,7 +36458,7 @@
         <v>132.2999999999996</v>
       </c>
       <c r="K710" t="n">
-        <v>7.142857142857125</v>
+        <v>15.3846153846152</v>
       </c>
       <c r="L710" t="n">
         <v>44.60000000000004</v>
@@ -36489,7 +36509,7 @@
         <v>132.6999999999996</v>
       </c>
       <c r="K711" t="n">
-        <v>5.26315789473679</v>
+        <v>-15.3846153846152</v>
       </c>
       <c r="L711" t="n">
         <v>44.60000000000004</v>
@@ -36540,7 +36560,7 @@
         <v>132.6999999999996</v>
       </c>
       <c r="K712" t="n">
-        <v>-3.846153846153898</v>
+        <v>0</v>
       </c>
       <c r="L712" t="n">
         <v>44.56000000000004</v>
@@ -36591,7 +36611,7 @@
         <v>132.8999999999996</v>
       </c>
       <c r="K713" t="n">
-        <v>0</v>
+        <v>-29.99999999999972</v>
       </c>
       <c r="L713" t="n">
         <v>44.54000000000003</v>
@@ -36642,7 +36662,7 @@
         <v>133.2999999999996</v>
       </c>
       <c r="K714" t="n">
-        <v>-11.53846153846153</v>
+        <v>-33.33333333333311</v>
       </c>
       <c r="L714" t="n">
         <v>44.44000000000004</v>
@@ -36693,7 +36713,7 @@
         <v>133.3999999999996</v>
       </c>
       <c r="K715" t="n">
-        <v>-5.882352941176528</v>
+        <v>-47.36842105263136</v>
       </c>
       <c r="L715" t="n">
         <v>44.38000000000004</v>
@@ -36744,7 +36764,7 @@
         <v>133.6999999999996</v>
       </c>
       <c r="K716" t="n">
-        <v>-7.999999999999926</v>
+        <v>-23.80952380952355</v>
       </c>
       <c r="L716" t="n">
         <v>44.32000000000004</v>
@@ -36795,7 +36815,7 @@
         <v>133.7999999999996</v>
       </c>
       <c r="K717" t="n">
-        <v>-9.803921568627407</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L717" t="n">
         <v>44.26000000000003</v>
@@ -36846,7 +36866,7 @@
         <v>133.9999999999996</v>
       </c>
       <c r="K718" t="n">
-        <v>2.040816326530494</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L718" t="n">
         <v>44.25000000000004</v>
@@ -36897,7 +36917,7 @@
         <v>134.4999999999996</v>
       </c>
       <c r="K719" t="n">
-        <v>-16.00000000000009</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L719" t="n">
         <v>44.19000000000004</v>
@@ -36948,7 +36968,7 @@
         <v>135.0999999999996</v>
       </c>
       <c r="K720" t="n">
-        <v>-3.571428571428626</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>44.15000000000004</v>
@@ -36999,7 +37019,7 @@
         <v>135.6999999999996</v>
       </c>
       <c r="K721" t="n">
-        <v>-10.00000000000002</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L721" t="n">
         <v>44.09000000000005</v>
@@ -37050,7 +37070,7 @@
         <v>135.8999999999996</v>
       </c>
       <c r="K722" t="n">
-        <v>-20.68965517241378</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L722" t="n">
         <v>44.01000000000005</v>
@@ -37101,7 +37121,7 @@
         <v>136.3999999999996</v>
       </c>
       <c r="K723" t="n">
-        <v>-5.084745762711836</v>
+        <v>9.677419354838953</v>
       </c>
       <c r="L723" t="n">
         <v>44.00000000000005</v>
@@ -37152,7 +37172,7 @@
         <v>137.1999999999996</v>
       </c>
       <c r="K724" t="n">
-        <v>1.587301587301614</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L724" t="n">
         <v>44.11000000000005</v>
@@ -37203,7 +37223,7 @@
         <v>137.7999999999996</v>
       </c>
       <c r="K725" t="n">
-        <v>-3.030303030303076</v>
+        <v>2.439024390243784</v>
       </c>
       <c r="L725" t="n">
         <v>44.15000000000005</v>
@@ -37254,7 +37274,7 @@
         <v>137.7999999999996</v>
       </c>
       <c r="K726" t="n">
-        <v>-7.936507936507958</v>
+        <v>4.999999999999929</v>
       </c>
       <c r="L726" t="n">
         <v>44.16000000000005</v>
@@ -37305,7 +37325,7 @@
         <v>138.0999999999996</v>
       </c>
       <c r="K727" t="n">
-        <v>-10.76923076923086</v>
+        <v>-7.317073170731699</v>
       </c>
       <c r="L727" t="n">
         <v>44.15000000000005</v>
@@ -37356,7 +37376,7 @@
         <v>138.2999999999996</v>
       </c>
       <c r="K728" t="n">
-        <v>-9.375000000000098</v>
+        <v>0</v>
       </c>
       <c r="L728" t="n">
         <v>44.10000000000005</v>
@@ -37407,7 +37427,7 @@
         <v>138.4999999999995</v>
       </c>
       <c r="K729" t="n">
-        <v>-6.060606060606096</v>
+        <v>-11.76470588235308</v>
       </c>
       <c r="L729" t="n">
         <v>44.12000000000005</v>
@@ -37458,7 +37478,7 @@
         <v>138.6999999999995</v>
       </c>
       <c r="K730" t="n">
-        <v>-9.375000000000028</v>
+        <v>13.33333333333377</v>
       </c>
       <c r="L730" t="n">
         <v>44.10000000000005</v>
@@ -37509,7 +37529,7 @@
         <v>138.6999999999995</v>
       </c>
       <c r="K731" t="n">
-        <v>-3.33333333333331</v>
+        <v>21.42857142857183</v>
       </c>
       <c r="L731" t="n">
         <v>44.14000000000005</v>
@@ -37560,7 +37580,7 @@
         <v>138.8999999999995</v>
       </c>
       <c r="K732" t="n">
-        <v>-6.451612903225884</v>
+        <v>-4.000000000000147</v>
       </c>
       <c r="L732" t="n">
         <v>44.18000000000005</v>
@@ -37611,7 +37631,7 @@
         <v>139.0999999999995</v>
       </c>
       <c r="K733" t="n">
-        <v>0</v>
+        <v>-36.84210526315921</v>
       </c>
       <c r="L733" t="n">
         <v>44.19000000000004</v>
@@ -37662,7 +37682,7 @@
         <v>139.0999999999995</v>
       </c>
       <c r="K734" t="n">
-        <v>6.89655172413815</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L734" t="n">
         <v>44.12000000000005</v>
@@ -37713,7 +37733,7 @@
         <v>139.1999999999995</v>
       </c>
       <c r="K735" t="n">
-        <v>3.448275862069075</v>
+        <v>-14.28571428571479</v>
       </c>
       <c r="L735" t="n">
         <v>44.10000000000004</v>
@@ -37764,7 +37784,7 @@
         <v>139.1999999999995</v>
       </c>
       <c r="K736" t="n">
-        <v>-1.818181818181882</v>
+        <v>9.090909090909737</v>
       </c>
       <c r="L736" t="n">
         <v>44.08000000000005</v>
@@ -37815,7 +37835,7 @@
         <v>139.1999999999995</v>
       </c>
       <c r="K737" t="n">
-        <v>0</v>
+        <v>33.3333333333357</v>
       </c>
       <c r="L737" t="n">
         <v>44.09000000000005</v>
@@ -37866,7 +37886,7 @@
         <v>139.1999999999995</v>
       </c>
       <c r="K738" t="n">
-        <v>-3.846153846153836</v>
+        <v>14.2857142857153</v>
       </c>
       <c r="L738" t="n">
         <v>44.12000000000005</v>
@@ -37917,7 +37937,7 @@
         <v>139.1999999999995</v>
       </c>
       <c r="K739" t="n">
-        <v>6.382978723404477</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L739" t="n">
         <v>44.13000000000005</v>

--- a/BackTest/2019-10-17 BackTest FNB.xlsx
+++ b/BackTest/2019-10-17 BackTest FNB.xlsx
@@ -451,17 +451,13 @@
         <v>41.28333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>41.29666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>41.30166666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>41.31333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>41.32166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>41.33833333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>41.35000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>41.35833333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>41.37000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>41.38000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>41.39166666666668</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>41.40166666666668</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>41.40833333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>41.41666666666668</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>41.42666666666669</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>41.43500000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>41.44333333333336</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>41.45166666666669</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>41.46166666666669</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>41.47333333333336</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>41.48833333333336</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>41.50333333333336</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>41.51666666666669</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>41.5316666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>41.54500000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>41.5616666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>41.57833333333337</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>41.59500000000003</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>41.6066666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>41.62000000000004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>42</v>
-      </c>
-      <c r="K31" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>41.63666666666671</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>42</v>
-      </c>
-      <c r="K32" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>41.65333333333338</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>42</v>
-      </c>
-      <c r="K33" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>41.66666666666671</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>42</v>
-      </c>
-      <c r="K34" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>41.68333333333338</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>42</v>
-      </c>
-      <c r="K35" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>41.70000000000005</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>41.71500000000005</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>41.72833333333337</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>41.74000000000004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>42</v>
-      </c>
-      <c r="K39" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>41.75333333333337</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>42</v>
-      </c>
-      <c r="K40" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>41.76333333333336</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>42</v>
-      </c>
-      <c r="K41" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>41.77666666666669</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>41.78833333333336</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>41.80000000000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>41.80833333333336</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>42</v>
-      </c>
-      <c r="K45" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>41.82000000000003</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>41.83000000000003</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>41.8466666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>41.8566666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2593,22 +2201,14 @@
         <v>41.8666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2636,22 +2236,14 @@
         <v>41.8566666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2679,22 +2271,14 @@
         <v>41.85833333333336</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +2306,14 @@
         <v>41.8566666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2765,22 +2341,14 @@
         <v>41.86000000000003</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2808,22 +2376,14 @@
         <v>41.8566666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2851,22 +2411,14 @@
         <v>41.84833333333336</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2894,22 +2446,14 @@
         <v>41.8366666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2937,22 +2481,14 @@
         <v>41.83333333333337</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +2516,14 @@
         <v>41.82666666666671</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +2551,14 @@
         <v>41.82000000000005</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +2586,14 @@
         <v>41.81500000000005</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3109,22 +2621,14 @@
         <v>41.81166666666672</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3152,22 +2656,14 @@
         <v>41.80500000000006</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3195,22 +2691,14 @@
         <v>41.80500000000006</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3238,22 +2726,14 @@
         <v>41.79833333333339</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K67" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3281,22 +2761,14 @@
         <v>41.79333333333339</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3324,22 +2796,14 @@
         <v>41.79333333333339</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3367,22 +2831,14 @@
         <v>41.79000000000005</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3410,22 +2866,14 @@
         <v>41.78666666666671</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K71" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3453,22 +2901,14 @@
         <v>41.77833333333338</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +2936,14 @@
         <v>41.76833333333338</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3539,22 +2971,14 @@
         <v>41.76000000000004</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3582,22 +3006,14 @@
         <v>41.75000000000004</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3625,22 +3041,14 @@
         <v>41.7466666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3668,22 +3076,14 @@
         <v>41.73666666666669</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K77" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3711,22 +3111,14 @@
         <v>41.72666666666669</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3754,22 +3146,14 @@
         <v>41.71666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K79" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3797,22 +3181,14 @@
         <v>41.70833333333335</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3216,14 @@
         <v>41.70000000000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3883,22 +3251,14 @@
         <v>41.70166666666668</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3926,22 +3286,14 @@
         <v>41.70333333333335</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3969,22 +3321,14 @@
         <v>41.70500000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K84" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4012,22 +3356,14 @@
         <v>41.70333333333335</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K85" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4055,22 +3391,14 @@
         <v>41.70166666666668</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +3426,14 @@
         <v>41.69833333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K87" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4141,22 +3461,14 @@
         <v>41.69666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4184,22 +3496,14 @@
         <v>41.69</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K89" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4227,22 +3531,14 @@
         <v>41.69166666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4270,22 +3566,14 @@
         <v>41.695</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>42</v>
-      </c>
-      <c r="K91" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4313,22 +3601,14 @@
         <v>41.69166666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +3636,14 @@
         <v>41.695</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4399,22 +3671,14 @@
         <v>41.70166666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K94" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4442,22 +3706,14 @@
         <v>41.71166666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4485,22 +3741,14 @@
         <v>41.72166666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +3776,14 @@
         <v>41.72666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K97" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4577,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4618,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4659,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4741,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4782,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4864,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4899,22 +4091,14 @@
         <v>41.745</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4942,22 +4126,14 @@
         <v>41.75</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5073,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5114,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5155,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5196,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5278,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5319,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5401,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5524,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5565,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5682,22 +4756,14 @@
         <v>41.93999999999997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K125" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5725,22 +4791,14 @@
         <v>41.9533333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5768,22 +4826,14 @@
         <v>41.96166666666664</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K127" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5811,22 +4861,14 @@
         <v>41.96166666666664</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K128" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5854,22 +4896,14 @@
         <v>41.9633333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K129" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5897,22 +4931,14 @@
         <v>41.96666666666665</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5940,22 +4966,14 @@
         <v>41.98333333333331</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K131" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5983,22 +5001,14 @@
         <v>41.99666666666665</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K132" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -6026,22 +5036,14 @@
         <v>42.01499999999998</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K133" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6069,22 +5071,14 @@
         <v>42.02666666666664</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>42</v>
-      </c>
-      <c r="K134" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6112,22 +5106,14 @@
         <v>42.03833333333331</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K135" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6155,22 +5141,14 @@
         <v>42.04333333333332</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>42</v>
-      </c>
-      <c r="K136" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6198,22 +5176,14 @@
         <v>42.05333333333332</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K137" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6241,22 +5211,14 @@
         <v>42.06333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K138" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6284,22 +5246,14 @@
         <v>42.07833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K139" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6327,22 +5281,14 @@
         <v>42.08333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K140" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6370,22 +5316,14 @@
         <v>42.08833333333332</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K141" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6413,22 +5351,14 @@
         <v>42.08666666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K142" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6456,22 +5386,14 @@
         <v>42.08333333333332</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K143" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6499,22 +5421,14 @@
         <v>42.07666666666665</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K144" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6542,22 +5456,14 @@
         <v>42.07499999999997</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K145" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6585,22 +5491,14 @@
         <v>42.06999999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K146" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6628,22 +5526,14 @@
         <v>42.06499999999998</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6671,22 +5561,14 @@
         <v>42.07333333333332</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K148" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6714,22 +5596,14 @@
         <v>42.07833333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K149" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6757,22 +5631,14 @@
         <v>42.07666666666666</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K150" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6800,22 +5666,14 @@
         <v>42.075</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K151" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6843,22 +5701,14 @@
         <v>42.07833333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>42</v>
-      </c>
-      <c r="K152" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6886,22 +5736,14 @@
         <v>42.07666666666666</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K153" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6929,22 +5771,14 @@
         <v>42.075</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K154" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6972,22 +5806,14 @@
         <v>42.06666666666666</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K155" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -7021,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -7062,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7103,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7144,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7185,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7226,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7308,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7349,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7390,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7431,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7472,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7513,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7554,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7677,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7718,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7800,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7923,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7964,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -8005,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -8087,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -8128,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8169,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8251,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8292,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8333,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8415,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8497,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8538,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8579,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8620,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8661,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8702,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8784,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8825,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8866,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8907,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8948,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8989,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -9030,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -9112,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -9153,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9194,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9276,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9317,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9358,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9399,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9440,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9522,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9563,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9604,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9686,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9721,22 +8151,14 @@
         <v>42.32833333333335</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K222" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9811,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9852,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9893,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9934,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9975,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -10016,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -10098,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -10174,22 +8536,14 @@
         <v>42.26500000000001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K233" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10217,22 +8571,14 @@
         <v>42.25500000000002</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="K234" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10260,22 +8606,14 @@
         <v>42.25833333333335</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K235" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10303,22 +8641,14 @@
         <v>42.26333333333334</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K236" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10346,22 +8676,14 @@
         <v>42.25833333333334</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K237" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10389,22 +8711,14 @@
         <v>42.25166666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K238" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10432,22 +8746,14 @@
         <v>42.245</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K239" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10481,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10522,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10563,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10645,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10686,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10727,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10768,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10809,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10850,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10891,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10932,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10973,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -11014,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -11055,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -11137,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -11178,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11219,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11260,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11301,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11342,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11424,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11465,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11506,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11547,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11588,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11629,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11670,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11711,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11752,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11793,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11834,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11875,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11916,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11957,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11998,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -12039,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -12080,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -12121,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -12162,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -12203,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -12244,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12285,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12326,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12367,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12408,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12449,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12490,14 +10502,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12531,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12572,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12613,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12654,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12695,14 +10677,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12777,14 +10747,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12818,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12859,14 +10817,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12900,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12941,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12982,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -13023,14 +10957,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -13064,14 +10992,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -13105,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -13146,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -13187,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -13228,14 +11132,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13269,14 +11167,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13310,14 +11202,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13351,14 +11237,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13392,14 +11272,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13433,14 +11307,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13474,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13515,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13556,14 +11412,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13597,14 +11447,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13638,14 +11482,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13679,14 +11517,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13720,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13761,14 +11587,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13802,14 +11622,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13843,14 +11657,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13884,14 +11692,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13925,14 +11727,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13966,14 +11762,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -14007,14 +11797,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -14048,14 +11832,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -14089,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -14130,14 +11902,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -14168,19 +11934,13 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
-        <v>1.110107913669065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -14279,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -14314,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -14349,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -14384,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -14419,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
@@ -14454,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
@@ -16309,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
@@ -16344,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
@@ -17149,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
@@ -26526,14 +24286,20 @@
         <v>46.48333333333335</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>44.4</v>
+      </c>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -26561,14 +24327,20 @@
         <v>46.44166666666668</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>44</v>
+      </c>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -26596,14 +24368,20 @@
         <v>46.39500000000001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>44.1</v>
+      </c>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26631,14 +24409,20 @@
         <v>46.34000000000002</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>44.2</v>
+      </c>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -26666,14 +24450,20 @@
         <v>46.29500000000002</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -26701,14 +24491,20 @@
         <v>46.25500000000002</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>44.4</v>
+      </c>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -26736,14 +24532,20 @@
         <v>46.21166666666669</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>44.7</v>
+      </c>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26771,14 +24573,20 @@
         <v>46.17000000000002</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>44.4</v>
+      </c>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26806,14 +24614,20 @@
         <v>46.12333333333335</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>44.4</v>
+      </c>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26841,14 +24655,20 @@
         <v>46.08333333333335</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>44.1</v>
+      </c>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26876,14 +24696,20 @@
         <v>46.03500000000001</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>44.6</v>
+      </c>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26911,14 +24737,20 @@
         <v>45.98666666666668</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>44.2</v>
+      </c>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26946,14 +24778,20 @@
         <v>45.93333333333334</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>44.4</v>
+      </c>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26981,14 +24819,20 @@
         <v>45.89000000000001</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>44.2</v>
+      </c>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -27016,14 +24860,20 @@
         <v>45.84333333333334</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>44.6</v>
+      </c>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -27051,14 +24901,20 @@
         <v>45.79333333333334</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>44.6</v>
+      </c>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -27093,7 +24949,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -27128,7 +24988,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +25027,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -27198,7 +25066,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +25105,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +25144,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -27303,7 +25183,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -27338,7 +25222,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -27373,7 +25261,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -27408,7 +25300,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -27443,7 +25339,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27478,7 +25378,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27513,7 +25417,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +25456,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27583,7 +25495,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27618,7 +25534,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27653,7 +25573,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27688,7 +25612,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27723,7 +25651,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27758,7 +25690,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest FNB.xlsx
+++ b/BackTest/2019-10-17 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>359766.0099999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>430714.3681999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>40.9</v>
@@ -521,7 +521,7 @@
         <v>365905.6913999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>41.4</v>
@@ -562,7 +562,7 @@
         <v>361740.9675999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>41.2</v>
@@ -603,7 +603,7 @@
         <v>343480.5789999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>41.1</v>
@@ -644,7 +644,7 @@
         <v>377042.3788999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>41</v>
@@ -685,7 +685,7 @@
         <v>377042.3788999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>41.1</v>
@@ -726,7 +726,7 @@
         <v>377042.3788999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>41.1</v>
@@ -767,7 +767,7 @@
         <v>377115.1943999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>41.1</v>
@@ -808,7 +808,7 @@
         <v>429908.1596999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>41.2</v>
@@ -849,7 +849,7 @@
         <v>429908.1596999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>41.3</v>
@@ -890,7 +890,7 @@
         <v>491584.0281999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>41.3</v>
@@ -931,7 +931,7 @@
         <v>455794.0697999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>41.4</v>
@@ -972,7 +972,7 @@
         <v>383114.5823999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>41.3</v>
@@ -1013,7 +1013,7 @@
         <v>450083.2015999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>41.2</v>
@@ -1054,7 +1054,7 @@
         <v>450083.2015999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>41.3</v>
@@ -1095,7 +1095,7 @@
         <v>450083.2015999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>41.3</v>
@@ -1136,7 +1136,7 @@
         <v>450083.2015999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>41.3</v>
@@ -1177,7 +1177,7 @@
         <v>442707.2190999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>41.3</v>
@@ -1218,7 +1218,7 @@
         <v>372371.2203999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>41.2</v>
@@ -1259,7 +1259,7 @@
         <v>372371.2203999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>40.9</v>
@@ -1300,7 +1300,7 @@
         <v>372381.2203999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>40.9</v>
@@ -1341,7 +1341,7 @@
         <v>372381.2203999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>41</v>
@@ -1382,7 +1382,7 @@
         <v>372381.2203999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>41</v>
@@ -1423,7 +1423,7 @@
         <v>372371.2203999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>41</v>
@@ -1464,7 +1464,7 @@
         <v>372371.2203999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>40.9</v>
@@ -1505,7 +1505,7 @@
         <v>377069.2500999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>40.9</v>
@@ -1546,7 +1546,7 @@
         <v>392286.6489999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>41</v>
@@ -1587,7 +1587,7 @@
         <v>377019.0478999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>41.2</v>
@@ -1628,7 +1628,7 @@
         <v>368479.4869999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>41.1</v>
@@ -1669,7 +1669,7 @@
         <v>368479.4869999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>41</v>
@@ -1710,7 +1710,7 @@
         <v>371105.4869999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>41</v>
@@ -1751,7 +1751,7 @@
         <v>362253.5235999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>41.2</v>
@@ -1792,7 +1792,7 @@
         <v>362253.5235999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>41.1</v>
@@ -1833,7 +1833,7 @@
         <v>362263.5235999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>41.1</v>
@@ -1874,7 +1874,7 @@
         <v>419301.7903999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>41.2</v>
@@ -1915,7 +1915,7 @@
         <v>476494.9574999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>41.3</v>
@@ -1956,7 +1956,7 @@
         <v>453345.0193999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>41.4</v>
@@ -1997,7 +1997,7 @@
         <v>453345.0193999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>41.3</v>
@@ -2038,7 +2038,7 @@
         <v>453345.0193999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>41.3</v>
@@ -2079,7 +2079,7 @@
         <v>453355.0193999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>41.3</v>
@@ -2120,7 +2120,7 @@
         <v>552783.1638999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>41.4</v>
@@ -2161,7 +2161,7 @@
         <v>611655.6965999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>41.5</v>
@@ -2202,7 +2202,7 @@
         <v>611655.6965999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>41.7</v>
@@ -2243,7 +2243,7 @@
         <v>611655.6965999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>41.7</v>
@@ -2284,7 +2284,7 @@
         <v>529139.2983999997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>41.7</v>
@@ -2325,7 +2325,7 @@
         <v>568298.3975999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>41.4</v>
@@ -2366,7 +2366,7 @@
         <v>656940.3577999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>41.6</v>
@@ -2407,7 +2407,7 @@
         <v>579258.9024999997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>41.7</v>
@@ -2448,7 +2448,7 @@
         <v>642893.2688999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>41.3</v>
@@ -2489,7 +2489,7 @@
         <v>642893.2688999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>41.4</v>
@@ -2530,7 +2530,7 @@
         <v>642855.9763999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>41.4</v>
@@ -2571,7 +2571,7 @@
         <v>642865.9763999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>41.3</v>
@@ -2612,7 +2612,7 @@
         <v>642829.0567999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>41.5</v>
@@ -2653,7 +2653,7 @@
         <v>643529.0567999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>41.3</v>
@@ -2694,7 +2694,7 @@
         <v>668029.5237999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>41.5</v>
@@ -2735,7 +2735,7 @@
         <v>763612.7908999997</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>41.6</v>
@@ -2776,7 +2776,7 @@
         <v>751468.9744999997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>42</v>
@@ -2817,7 +2817,7 @@
         <v>751750.9874999997</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>41.5</v>
@@ -2858,7 +2858,7 @@
         <v>751750.9874999997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>41.7</v>
@@ -2899,7 +2899,7 @@
         <v>751750.9874999997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>41.7</v>
@@ -2940,7 +2940,7 @@
         <v>751750.9874999997</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>41.7</v>
@@ -2981,7 +2981,7 @@
         <v>756158.6579999997</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>41.7</v>
@@ -3022,9 +3022,11 @@
         <v>755005.8995999997</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J65" t="n">
         <v>40.9</v>
       </c>
@@ -3061,9 +3063,11 @@
         <v>756005.8995999997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J66" t="n">
         <v>40.9</v>
       </c>
@@ -3100,9 +3104,11 @@
         <v>755890.3852999996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>42</v>
+      </c>
       <c r="J67" t="n">
         <v>40.9</v>
       </c>
@@ -3139,9 +3145,11 @@
         <v>750052.7687999996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J68" t="n">
         <v>40.9</v>
       </c>
@@ -3178,9 +3186,11 @@
         <v>752552.7687999996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J69" t="n">
         <v>40.9</v>
       </c>
@@ -3217,9 +3227,11 @@
         <v>752552.7687999996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J70" t="n">
         <v>40.9</v>
       </c>
@@ -3256,9 +3268,11 @@
         <v>784192.5363999996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J71" t="n">
         <v>40.9</v>
       </c>
@@ -3295,9 +3309,11 @@
         <v>777032.6319999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>42</v>
+      </c>
       <c r="J72" t="n">
         <v>40.9</v>
       </c>
@@ -3334,9 +3350,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J73" t="n">
         <v>40.9</v>
       </c>
@@ -3373,9 +3391,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J74" t="n">
         <v>40.9</v>
       </c>
@@ -3412,9 +3432,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J75" t="n">
         <v>40.9</v>
       </c>
@@ -3451,9 +3473,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J76" t="n">
         <v>40.9</v>
       </c>
@@ -3490,9 +3514,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J77" t="n">
         <v>40.9</v>
       </c>
@@ -3529,9 +3555,11 @@
         <v>739665.8233999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J78" t="n">
         <v>40.9</v>
       </c>
@@ -3568,9 +3596,11 @@
         <v>813220.4105999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J79" t="n">
         <v>40.9</v>
       </c>
@@ -3607,9 +3637,11 @@
         <v>813220.4105999996</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J80" t="n">
         <v>40.9</v>
       </c>
@@ -3646,9 +3678,11 @@
         <v>812685.5285999996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J81" t="n">
         <v>40.9</v>
       </c>
@@ -3685,9 +3719,11 @@
         <v>812685.5285999996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J82" t="n">
         <v>40.9</v>
       </c>
@@ -3724,9 +3760,11 @@
         <v>812685.5285999996</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J83" t="n">
         <v>40.9</v>
       </c>
@@ -3763,9 +3801,11 @@
         <v>865021.9467999996</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J84" t="n">
         <v>40.9</v>
       </c>
@@ -5050,9 +5090,11 @@
         <v>618881.0483999996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J117" t="n">
         <v>40.9</v>
       </c>
@@ -5089,9 +5131,11 @@
         <v>619308.1206999996</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J118" t="n">
         <v>40.9</v>
       </c>
@@ -5128,9 +5172,11 @@
         <v>619308.1206999996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J119" t="n">
         <v>40.9</v>
       </c>
@@ -5167,9 +5213,11 @@
         <v>619308.1206999996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J120" t="n">
         <v>40.9</v>
       </c>
@@ -5206,9 +5254,11 @@
         <v>619308.1206999996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J121" t="n">
         <v>40.9</v>
       </c>
@@ -5245,9 +5295,11 @@
         <v>656367.7381999997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J122" t="n">
         <v>40.9</v>
       </c>
@@ -5284,9 +5336,11 @@
         <v>723461.2579999997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J123" t="n">
         <v>40.9</v>
       </c>
@@ -5323,9 +5377,11 @@
         <v>723461.2579999997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J124" t="n">
         <v>40.9</v>
       </c>
@@ -5362,9 +5418,11 @@
         <v>777500.0907999997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J125" t="n">
         <v>40.9</v>
       </c>
@@ -5401,9 +5459,11 @@
         <v>777500.0907999997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J126" t="n">
         <v>40.9</v>
       </c>
@@ -5440,9 +5500,11 @@
         <v>710619.7431999997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J127" t="n">
         <v>40.9</v>
       </c>
@@ -5479,9 +5541,11 @@
         <v>772686.7831999997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J128" t="n">
         <v>40.9</v>
       </c>
@@ -5518,9 +5582,11 @@
         <v>772686.7831999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J129" t="n">
         <v>40.9</v>
       </c>
@@ -5557,9 +5623,11 @@
         <v>772686.7831999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J130" t="n">
         <v>40.9</v>
       </c>
@@ -5635,9 +5703,11 @@
         <v>628908.8150999997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J132" t="n">
         <v>40.9</v>
       </c>
@@ -5713,9 +5783,11 @@
         <v>626169.0177999997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J134" t="n">
         <v>40.9</v>
       </c>
@@ -5752,9 +5824,11 @@
         <v>626179.0177999997</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J135" t="n">
         <v>40.9</v>
       </c>
@@ -5791,9 +5865,11 @@
         <v>585553.5113999997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J136" t="n">
         <v>40.9</v>
       </c>
@@ -5830,9 +5906,11 @@
         <v>585553.5113999997</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J137" t="n">
         <v>40.9</v>
       </c>
@@ -5869,9 +5947,11 @@
         <v>585553.5113999997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J138" t="n">
         <v>40.9</v>
       </c>
@@ -5908,9 +5988,11 @@
         <v>585563.5113999997</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J139" t="n">
         <v>40.9</v>
       </c>
@@ -5947,9 +6029,11 @@
         <v>585563.5113999997</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J140" t="n">
         <v>40.9</v>
       </c>
@@ -5986,9 +6070,11 @@
         <v>675210.9836999997</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J141" t="n">
         <v>40.9</v>
       </c>
@@ -6025,9 +6111,11 @@
         <v>675210.9836999997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J142" t="n">
         <v>40.9</v>
       </c>
@@ -6064,9 +6152,11 @@
         <v>675210.9836999997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J143" t="n">
         <v>40.9</v>
       </c>
@@ -9340,9 +9430,11 @@
         <v>-1538234.2823</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J227" t="n">
         <v>40.9</v>
       </c>
@@ -9418,9 +9510,11 @@
         <v>-1543256.4521</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J229" t="n">
         <v>40.9</v>
       </c>
@@ -9457,9 +9551,11 @@
         <v>-1541750.7317</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J230" t="n">
         <v>40.9</v>
       </c>
@@ -9496,9 +9592,11 @@
         <v>-1541750.7317</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J231" t="n">
         <v>40.9</v>
       </c>
@@ -9535,9 +9633,11 @@
         <v>-1539203.7317</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J232" t="n">
         <v>40.9</v>
       </c>
@@ -9769,9 +9869,11 @@
         <v>-1464368.295333724</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J238" t="n">
         <v>40.9</v>
       </c>
@@ -9964,9 +10066,11 @@
         <v>-1457601.165733724</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J243" t="n">
         <v>40.9</v>
       </c>
@@ -10003,9 +10107,11 @@
         <v>-1449127.654233724</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J244" t="n">
         <v>40.9</v>
       </c>
@@ -10237,9 +10343,11 @@
         <v>-1453560.493233724</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J250" t="n">
         <v>40.9</v>
       </c>
@@ -10276,9 +10384,11 @@
         <v>-1453560.493233724</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J251" t="n">
         <v>40.9</v>
       </c>
@@ -10315,9 +10425,11 @@
         <v>-1453560.493233724</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J252" t="n">
         <v>40.9</v>
       </c>
@@ -10354,9 +10466,11 @@
         <v>-1453560.493233724</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J253" t="n">
         <v>40.9</v>
       </c>
@@ -10393,9 +10507,11 @@
         <v>-1453560.493233724</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J254" t="n">
         <v>40.9</v>
       </c>
@@ -10627,9 +10743,11 @@
         <v>-1524126.322833724</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J260" t="n">
         <v>40.9</v>
       </c>
@@ -11134,9 +11252,11 @@
         <v>-1588294.258433724</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J273" t="n">
         <v>40.9</v>
       </c>
@@ -11173,9 +11293,11 @@
         <v>-1598524.415233724</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J274" t="n">
         <v>40.9</v>
       </c>
@@ -11212,9 +11334,11 @@
         <v>-1514266.667733724</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>41.8</v>
+      </c>
       <c r="J275" t="n">
         <v>40.9</v>
       </c>
@@ -11251,9 +11375,11 @@
         <v>-1514266.667733724</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J276" t="n">
         <v>40.9</v>
       </c>
@@ -11290,9 +11416,11 @@
         <v>-1514266.667733724</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J277" t="n">
         <v>40.9</v>
       </c>
@@ -11329,9 +11457,11 @@
         <v>-1515499.149533724</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J278" t="n">
         <v>40.9</v>
       </c>
@@ -11368,9 +11498,11 @@
         <v>-1523961.554733724</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J279" t="n">
         <v>40.9</v>
       </c>
@@ -11407,9 +11539,11 @@
         <v>-1518035.942933724</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J280" t="n">
         <v>40.9</v>
       </c>
@@ -11446,9 +11580,11 @@
         <v>-1515726.886333724</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J281" t="n">
         <v>40.9</v>
       </c>
@@ -11485,9 +11621,11 @@
         <v>-1517123.331233724</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J282" t="n">
         <v>40.9</v>
       </c>
@@ -11524,9 +11662,11 @@
         <v>-1517112.331233724</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J283" t="n">
         <v>40.9</v>
       </c>
@@ -11563,9 +11703,11 @@
         <v>-1517112.331233724</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J284" t="n">
         <v>40.9</v>
       </c>
@@ -11602,9 +11744,11 @@
         <v>-1520765.784433724</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J285" t="n">
         <v>40.9</v>
       </c>
@@ -11641,9 +11785,11 @@
         <v>-1519445.049833724</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J286" t="n">
         <v>40.9</v>
       </c>
@@ -11680,9 +11826,11 @@
         <v>-1519445.049833724</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J287" t="n">
         <v>40.9</v>
       </c>
@@ -11719,9 +11867,11 @@
         <v>-1523142.154033724</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J288" t="n">
         <v>40.9</v>
       </c>
@@ -11758,9 +11908,11 @@
         <v>-1524318.699133724</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J289" t="n">
         <v>40.9</v>
       </c>
@@ -11797,9 +11949,11 @@
         <v>-1524318.699133724</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J290" t="n">
         <v>40.9</v>
       </c>
@@ -11836,9 +11990,11 @@
         <v>-1524318.699133724</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J291" t="n">
         <v>40.9</v>
       </c>
@@ -11875,9 +12031,11 @@
         <v>-1524318.699133724</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J292" t="n">
         <v>40.9</v>
       </c>
@@ -11914,9 +12072,11 @@
         <v>-1474372.606533723</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J293" t="n">
         <v>40.9</v>
       </c>
@@ -11953,9 +12113,11 @@
         <v>-1473911.092433723</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>42.1</v>
+      </c>
       <c r="J294" t="n">
         <v>40.9</v>
       </c>
@@ -11992,9 +12154,11 @@
         <v>-1473911.092433723</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J295" t="n">
         <v>40.9</v>
       </c>
@@ -12031,9 +12195,11 @@
         <v>-1473911.092433723</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J296" t="n">
         <v>40.9</v>
       </c>
@@ -12070,9 +12236,11 @@
         <v>-1473911.092433723</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J297" t="n">
         <v>40.9</v>
       </c>
@@ -12109,9 +12277,11 @@
         <v>-1473911.092433723</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J298" t="n">
         <v>40.9</v>
       </c>
@@ -12148,9 +12318,11 @@
         <v>-1473778.300133723</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J299" t="n">
         <v>40.9</v>
       </c>
@@ -12187,9 +12359,11 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J300" t="n">
         <v>40.9</v>
       </c>
@@ -12226,9 +12400,11 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J301" t="n">
         <v>40.9</v>
       </c>
@@ -12265,9 +12441,11 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J302" t="n">
         <v>40.9</v>
       </c>
@@ -13474,9 +13652,11 @@
         <v>-1355422.510033723</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J333" t="n">
         <v>40.9</v>
       </c>
@@ -13513,9 +13693,11 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J334" t="n">
         <v>40.9</v>
       </c>
@@ -13552,9 +13734,11 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J335" t="n">
         <v>40.9</v>
       </c>
@@ -13591,9 +13775,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J336" t="n">
         <v>40.9</v>
       </c>
@@ -13669,9 +13855,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J338" t="n">
         <v>40.9</v>
       </c>
@@ -13708,9 +13896,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J339" t="n">
         <v>40.9</v>
       </c>
@@ -13747,9 +13937,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J340" t="n">
         <v>40.9</v>
       </c>
@@ -13786,9 +13978,11 @@
         <v>-1288460.971633723</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J341" t="n">
         <v>40.9</v>
       </c>
@@ -13825,9 +14019,11 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>43</v>
+      </c>
       <c r="J342" t="n">
         <v>40.9</v>
       </c>
@@ -13864,9 +14060,11 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J343" t="n">
         <v>40.9</v>
       </c>
@@ -13903,9 +14101,11 @@
         <v>-1284057.092933723</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J344" t="n">
         <v>40.9</v>
       </c>
@@ -13942,9 +14142,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J345" t="n">
         <v>40.9</v>
       </c>
@@ -13981,9 +14183,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J346" t="n">
         <v>40.9</v>
       </c>
@@ -14020,9 +14224,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J347" t="n">
         <v>40.9</v>
       </c>
@@ -15034,7 +15240,7 @@
         <v>333865.4810662766</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
@@ -15042,15 +15248,13 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
-        <v>1.117249388753056</v>
-      </c>
-      <c r="M373" t="n">
-        <v>1.012224938875306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -15075,11 +15279,17 @@
         <v>437556.5541662766</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15108,11 +15318,17 @@
         <v>-5903.336533723399</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15141,11 +15357,17 @@
         <v>20458.9190662766</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15177,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15207,11 +15435,17 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15243,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15276,8 +15516,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15309,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15342,8 +15594,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15375,8 +15633,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15408,8 +15672,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15441,8 +15711,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15474,8 +15750,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15504,11 +15786,17 @@
         <v>554554.1428246468</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15537,11 +15825,17 @@
         <v>391304.8966246468</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +15864,17 @@
         <v>431872.6513246468</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15603,11 +15903,17 @@
         <v>503110.8664246468</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15639,8 +15945,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15669,11 +15981,17 @@
         <v>441748.0834246468</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15702,11 +16020,17 @@
         <v>432514.6800246468</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15735,11 +16059,17 @@
         <v>490125.0318246468</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +16098,17 @@
         <v>330737.9914246468</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15801,11 +16137,17 @@
         <v>227659.6400246468</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15834,11 +16176,17 @@
         <v>177093.6625149485</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +16215,17 @@
         <v>177093.6625149485</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15900,11 +16254,17 @@
         <v>146016.4018149485</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15936,8 +16296,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15969,8 +16335,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16002,8 +16374,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16035,8 +16413,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16068,8 +16452,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16101,8 +16491,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16134,8 +16530,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16167,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16200,8 +16608,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16233,8 +16647,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16266,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16299,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16332,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16365,8 +16803,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16398,8 +16842,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16431,8 +16881,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16464,8 +16920,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16497,8 +16959,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16530,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16563,8 +17037,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16596,8 +17076,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16629,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16662,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16695,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16728,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16761,8 +17271,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16794,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16827,8 +17349,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16860,8 +17388,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16893,8 +17427,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16926,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16959,8 +17505,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16992,8 +17544,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17025,8 +17583,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17058,8 +17622,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17091,8 +17661,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17124,8 +17700,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17157,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17190,8 +17778,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17223,8 +17817,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17256,8 +17856,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17289,8 +17895,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17322,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17355,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17388,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17421,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17454,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17487,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17517,11 +18165,17 @@
         <v>1288429.935720323</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17550,11 +18204,17 @@
         <v>929596.6818292628</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17583,11 +18243,17 @@
         <v>769961.4178292628</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17616,11 +18282,17 @@
         <v>769961.4178292628</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17649,11 +18321,17 @@
         <v>703274.4070292627</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17682,11 +18360,17 @@
         <v>814102.2717292628</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17718,8 +18402,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17751,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17784,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17817,8 +18519,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17850,8 +18558,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17883,8 +18597,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17916,8 +18636,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17949,8 +18675,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17982,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18015,8 +18753,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18048,8 +18792,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18081,8 +18831,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18114,8 +18870,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18147,8 +18909,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18180,8 +18948,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18213,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18243,11 +19023,17 @@
         <v>1652591.050356535</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18276,11 +19062,17 @@
         <v>2618965.918456535</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18309,11 +19101,17 @@
         <v>3089981.021256535</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18342,11 +19140,17 @@
         <v>2896862.282603547</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18375,11 +19179,17 @@
         <v>2896862.282603547</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18408,11 +19218,17 @@
         <v>2655778.911703547</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18444,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18477,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18510,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18543,8 +19377,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18576,8 +19416,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18609,8 +19455,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18642,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18675,8 +19533,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18708,8 +19572,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18741,8 +19611,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18774,8 +19650,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18807,8 +19689,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18840,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18873,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18906,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18939,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18972,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19002,15 +19920,23 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L493" t="n">
-        <v>1</v>
-      </c>
-      <c r="M493" t="inlineStr"/>
+        <v>1.19059902200489</v>
+      </c>
+      <c r="M493" t="n">
+        <v>1.012224938875306</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -19035,7 +19961,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19068,7 +19994,7 @@
         <v>3417070.421206584</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19101,7 +20027,7 @@
         <v>3492645.044406584</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19134,7 +20060,7 @@
         <v>3603189.419065768</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19167,7 +20093,7 @@
         <v>3596054.660365768</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19200,7 +20126,7 @@
         <v>3680682.39837427</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19233,7 +20159,7 @@
         <v>3662049.620274269</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19266,7 +20192,7 @@
         <v>3725886.681774269</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19497,7 +20423,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19530,7 +20456,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19563,7 +20489,7 @@
         <v>3416227.962106587</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19596,7 +20522,7 @@
         <v>3024740.809806587</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19629,7 +20555,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19662,7 +20588,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19695,7 +20621,7 @@
         <v>2977149.883889652</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19728,7 +20654,7 @@
         <v>3015475.818389652</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19761,7 +20687,7 @@
         <v>3022030.060889652</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19794,7 +20720,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19827,7 +20753,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19860,7 +20786,7 @@
         <v>3018324.551006587</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19893,7 +20819,7 @@
         <v>3022496.228032394</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19926,7 +20852,7 @@
         <v>2931428.401432394</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19959,7 +20885,7 @@
         <v>2940022.064132394</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19992,7 +20918,7 @@
         <v>2939344.983232394</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20025,7 +20951,7 @@
         <v>2939344.983232394</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20058,7 +20984,7 @@
         <v>2977846.621232394</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20091,7 +21017,7 @@
         <v>2924799.835238467</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20124,7 +21050,7 @@
         <v>2924799.835238467</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20157,7 +21083,7 @@
         <v>2801319.770038467</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20190,7 +21116,7 @@
         <v>2680521.193338467</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20223,7 +21149,7 @@
         <v>2683596.830838467</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20256,7 +21182,7 @@
         <v>2701475.729138467</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20289,7 +21215,7 @@
         <v>2753444.268138467</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20322,7 +21248,7 @@
         <v>2747750.514238467</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20421,7 +21347,7 @@
         <v>2729543.068638467</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20454,7 +21380,7 @@
         <v>2781880.278338467</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20487,7 +21413,7 @@
         <v>2781788.973238467</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20619,7 +21545,7 @@
         <v>2379517.009238467</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20652,7 +21578,7 @@
         <v>2331882.346338467</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20718,7 +21644,7 @@
         <v>2491833.583838467</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20751,7 +21677,7 @@
         <v>2407123.491838466</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20784,7 +21710,7 @@
         <v>2407123.491838466</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20817,7 +21743,7 @@
         <v>2427956.888263989</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20850,7 +21776,7 @@
         <v>2394855.234363989</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20883,7 +21809,7 @@
         <v>2121802.005676595</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20916,7 +21842,7 @@
         <v>1845613.997776594</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20949,7 +21875,7 @@
         <v>1626364.949976594</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20982,7 +21908,7 @@
         <v>1627757.472776594</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21015,7 +21941,7 @@
         <v>1575119.840576594</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21048,7 +21974,7 @@
         <v>1575119.840576594</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21081,7 +22007,7 @@
         <v>1632965.415976594</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21114,7 +22040,7 @@
         <v>1632965.415976594</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21147,7 +22073,7 @@
         <v>1636703.652576594</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21180,7 +22106,7 @@
         <v>1636703.652576594</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21213,7 +22139,7 @@
         <v>1615656.547176594</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21246,7 +22172,7 @@
         <v>1618066.657176594</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21279,7 +22205,7 @@
         <v>1904516.896276594</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21312,7 +22238,7 @@
         <v>1904516.896276594</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21873,7 +22799,7 @@
         <v>2121411.39046813</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21906,7 +22832,7 @@
         <v>2114284.16326813</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21939,7 +22865,7 @@
         <v>2115311.47646813</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21972,7 +22898,7 @@
         <v>2161397.234568131</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22005,7 +22931,7 @@
         <v>2161397.234568131</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22038,7 +22964,7 @@
         <v>2089905.716668131</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22071,7 +22997,7 @@
         <v>2073721.978968131</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22104,7 +23030,7 @@
         <v>2073721.978968131</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22137,7 +23063,7 @@
         <v>2098550.320468131</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22170,7 +23096,7 @@
         <v>2098550.320468131</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22203,7 +23129,7 @@
         <v>2053460.148443812</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22236,7 +23162,7 @@
         <v>2125022.817919493</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22269,7 +23195,7 @@
         <v>2144199.164843812</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22302,7 +23228,7 @@
         <v>2243307.569143812</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22335,7 +23261,7 @@
         <v>2356475.217212419</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22368,7 +23294,7 @@
         <v>2339485.320312419</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22401,7 +23327,7 @@
         <v>2335831.157212419</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22434,7 +23360,7 @@
         <v>2335103.435712419</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22467,7 +23393,7 @@
         <v>2335103.435712419</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22500,7 +23426,7 @@
         <v>2303536.280112419</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22533,7 +23459,7 @@
         <v>2303536.280112419</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22566,7 +23492,7 @@
         <v>2305624.054612419</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22698,7 +23624,7 @@
         <v>2168465.201097292</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22731,7 +23657,7 @@
         <v>2176280.002897292</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22764,7 +23690,7 @@
         <v>2173546.368497293</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22797,7 +23723,7 @@
         <v>2164650.750897293</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22830,7 +23756,7 @@
         <v>2164650.750897293</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22863,7 +23789,7 @@
         <v>2156497.264897292</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22896,7 +23822,7 @@
         <v>2011465.840697292</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22929,7 +23855,7 @@
         <v>1945526.083197292</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22962,7 +23888,7 @@
         <v>1815996.100997292</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22995,7 +23921,7 @@
         <v>1815996.100997292</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23028,7 +23954,7 @@
         <v>1081560.424997292</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24711,7 +25637,7 @@
         <v>1148930.342975046</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24744,7 +25670,7 @@
         <v>1388325.870475047</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24777,7 +25703,7 @@
         <v>1429752.513675047</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24810,7 +25736,7 @@
         <v>1458998.726575047</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24843,7 +25769,7 @@
         <v>1554282.241312599</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24876,7 +25802,7 @@
         <v>1554282.241312599</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24909,7 +25835,7 @@
         <v>1535032.972812599</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24942,7 +25868,7 @@
         <v>1535032.972812599</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24975,7 +25901,7 @@
         <v>1445925.488712599</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25008,7 +25934,7 @@
         <v>1458671.133757185</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25041,7 +25967,7 @@
         <v>1458671.133757185</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25074,7 +26000,7 @@
         <v>1430139.532460582</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25107,7 +26033,7 @@
         <v>1475162.738560582</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25140,7 +26066,7 @@
         <v>1479751.176163979</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25173,7 +26099,7 @@
         <v>1479751.176163979</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25206,7 +26132,7 @@
         <v>1470828.059463979</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25239,7 +26165,7 @@
         <v>1355812.120063979</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25272,7 +26198,7 @@
         <v>1355812.120063979</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25305,7 +26231,7 @@
         <v>1420285.048163979</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25371,7 +26297,7 @@
         <v>1426588.991663979</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25404,7 +26330,7 @@
         <v>1426588.991663979</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25437,7 +26363,7 @@
         <v>1416812.585363979</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25470,7 +26396,7 @@
         <v>1416797.33996398</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25503,7 +26429,7 @@
         <v>1416797.33996398</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25536,7 +26462,7 @@
         <v>1426797.33996398</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25569,7 +26495,7 @@
         <v>1573861.79306398</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25602,7 +26528,7 @@
         <v>1592911.29716398</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25635,7 +26561,7 @@
         <v>1648871.87696398</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25668,7 +26594,7 @@
         <v>1556328.58066398</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25701,7 +26627,7 @@
         <v>1564543.07696398</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25734,7 +26660,7 @@
         <v>1550551.39766398</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25767,7 +26693,7 @@
         <v>1661508.695563979</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25800,7 +26726,7 @@
         <v>1773441.975163979</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25833,7 +26759,7 @@
         <v>1773441.975163979</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25866,7 +26792,7 @@
         <v>1759068.63506398</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25899,7 +26825,7 @@
         <v>1724458.935563979</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25932,7 +26858,7 @@
         <v>1839837.365858959</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25965,7 +26891,7 @@
         <v>1830937.647458959</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25998,7 +26924,7 @@
         <v>1767271.804258959</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26031,7 +26957,7 @@
         <v>1589756.909458959</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26064,7 +26990,7 @@
         <v>1595093.372858959</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26097,7 +27023,7 @@
         <v>1595093.372858959</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26130,7 +27056,7 @@
         <v>1522629.383258959</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26163,7 +27089,7 @@
         <v>1497917.409258959</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26196,7 +27122,7 @@
         <v>1474805.880958959</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26262,7 +27188,7 @@
         <v>1399046.470658959</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26295,7 +27221,7 @@
         <v>1399046.470658959</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26328,7 +27254,7 @@
         <v>1407214.348758959</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26361,7 +27287,7 @@
         <v>1384548.455858959</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26394,7 +27320,7 @@
         <v>1258210.257358959</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26427,7 +27353,7 @@
         <v>1258210.257358959</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26460,7 +27386,7 @@
         <v>1201978.728058959</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -28715,6 +29641,6 @@
       <c r="M787" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest FNB.xlsx
+++ b/BackTest/2019-10-17 BackTest FNB.xlsx
@@ -10414,9 +10414,11 @@
         <v>-1473778.300133723</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10451,9 +10453,11 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10488,9 +10492,11 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10525,9 +10531,11 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10562,9 +10570,11 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10599,9 +10609,11 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10636,9 +10648,11 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10673,9 +10687,11 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10710,9 +10726,11 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10747,9 +10765,11 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10784,9 +10804,11 @@
         <v>-1405292.395133724</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10821,9 +10843,11 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -10858,9 +10882,11 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -10895,9 +10921,11 @@
         <v>-1378801.784733724</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10932,9 +10960,11 @@
         <v>-1344601.784733724</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -10969,9 +10999,11 @@
         <v>-1345001.784733724</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11006,9 +11038,11 @@
         <v>-1331109.533733724</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11043,9 +11077,11 @@
         <v>-1331109.533733724</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11080,9 +11116,11 @@
         <v>-1331137.533733724</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11117,9 +11155,11 @@
         <v>-1331127.533733724</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11154,9 +11194,11 @@
         <v>-1331170.533733724</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>43</v>
+      </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11191,9 +11233,11 @@
         <v>-1323170.533733724</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11228,9 +11272,11 @@
         <v>-1338035.673533724</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>43</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11265,9 +11311,11 @@
         <v>-1338077.673533724</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11302,9 +11350,11 @@
         <v>-1308913.675733724</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11339,9 +11389,11 @@
         <v>-1324290.321733724</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11376,9 +11428,11 @@
         <v>-1309672.508033724</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11413,9 +11467,11 @@
         <v>-1309672.508033724</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11450,9 +11506,11 @@
         <v>-1309326.182533724</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11487,9 +11545,11 @@
         <v>-1309326.182533724</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>43</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11524,9 +11584,11 @@
         <v>-1321088.723233724</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>43</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11561,9 +11623,11 @@
         <v>-1330091.339233723</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11598,9 +11662,11 @@
         <v>-1344432.945933723</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -11635,9 +11701,11 @@
         <v>-1355441.746533723</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -11672,9 +11740,11 @@
         <v>-1355422.510033723</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11709,9 +11779,11 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11746,9 +11818,11 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11822,9 +11896,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11859,9 +11935,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11896,9 +11974,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11933,9 +12013,11 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -11970,9 +12052,11 @@
         <v>-1288460.971633723</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12007,9 +12091,11 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>43</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12044,9 +12130,11 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12081,9 +12169,11 @@
         <v>-1284057.092933723</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12118,9 +12208,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12155,9 +12247,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12192,9 +12286,11 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12229,9 +12325,11 @@
         <v>-842328.8386337233</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12451,16 +12549,18 @@
         <v>-920732.1705337234</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
       <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -12486,11 +12586,15 @@
         <v>-737558.7706337235</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12519,11 +12623,15 @@
         <v>-754082.8752337234</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12552,11 +12660,15 @@
         <v>-698623.7258337234</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12585,11 +12697,15 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +12734,15 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12651,11 +12771,15 @@
         <v>-756927.3556337234</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12684,11 +12808,15 @@
         <v>-757434.1123337235</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12721,7 +12849,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12754,7 +12886,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12787,7 +12923,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12820,7 +12960,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12853,7 +12997,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12886,7 +13034,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +13071,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12952,7 +13108,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +13141,15 @@
         <v>-165684.0146337235</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13018,7 +13182,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13047,11 +13215,15 @@
         <v>17956.84332513873</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13080,11 +13252,15 @@
         <v>333865.4810662766</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13113,11 +13289,15 @@
         <v>437556.5541662766</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13146,11 +13326,15 @@
         <v>-5903.336533723399</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +13363,15 @@
         <v>20458.9190662766</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13212,11 +13400,15 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13245,11 +13437,15 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +13474,15 @@
         <v>146466.3933662766</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13311,11 +13511,15 @@
         <v>131169.8161559317</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +13548,15 @@
         <v>147800.1609559317</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13377,11 +13585,15 @@
         <v>-231201.8742440683</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13410,11 +13622,15 @@
         <v>-144073.4802440683</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13443,11 +13659,15 @@
         <v>562666.5541455869</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13476,11 +13696,15 @@
         <v>343730.4158455869</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13509,11 +13733,15 @@
         <v>387153.5623246467</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13542,11 +13770,15 @@
         <v>554554.1428246468</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13579,7 +13811,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13612,7 +13848,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13645,7 +13885,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13678,7 +13922,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13711,7 +13959,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13744,7 +13996,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13777,7 +14033,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13810,7 +14070,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13843,7 +14107,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13876,7 +14144,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13909,7 +14181,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13942,7 +14218,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13975,7 +14255,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14008,7 +14292,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14041,7 +14329,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +14366,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14107,7 +14403,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14136,11 +14436,15 @@
         <v>-952861.8243241488</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14169,11 +14473,15 @@
         <v>-900392.0384922806</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +14510,15 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14235,11 +14547,15 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14268,11 +14584,15 @@
         <v>-913888.7359604125</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14301,11 +14621,15 @@
         <v>-946082.1759922807</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +14658,15 @@
         <v>-998851.1660922808</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14367,11 +14695,15 @@
         <v>-1075146.364192281</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +14732,15 @@
         <v>-822796.9133922807</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14433,11 +14769,15 @@
         <v>-822996.9133922807</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14466,11 +14806,15 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +14843,15 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14532,11 +14880,15 @@
         <v>-785283.2334922807</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14565,11 +14917,15 @@
         <v>-783308.4466922807</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14602,7 +14958,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14635,7 +14995,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +15032,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14701,7 +15069,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14734,7 +15106,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +15139,15 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14796,11 +15176,15 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +15213,15 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14866,7 +15254,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14899,7 +15291,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14932,7 +15328,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14965,7 +15365,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14998,7 +15402,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15031,7 +15439,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15064,7 +15476,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15097,7 +15513,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15130,7 +15550,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15163,7 +15587,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15196,7 +15624,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15229,7 +15661,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15262,7 +15698,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15295,7 +15735,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15328,7 +15772,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15361,7 +15809,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15394,7 +15846,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15427,7 +15883,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15460,7 +15920,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15493,7 +15957,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15526,7 +15994,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15559,7 +16031,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15592,7 +16068,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15625,7 +16105,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15658,7 +16142,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15691,7 +16179,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15724,7 +16216,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15757,7 +16253,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15790,7 +16290,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16327,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15856,7 +16364,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15889,7 +16401,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15922,7 +16438,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15955,7 +16475,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15988,7 +16512,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16021,7 +16549,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16054,7 +16586,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16087,7 +16623,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16120,7 +16660,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16153,7 +16697,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16186,7 +16734,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16219,7 +16771,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16252,7 +16808,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16285,7 +16845,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16318,7 +16882,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16351,7 +16919,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +16956,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16413,14 +16989,16 @@
         <v>2896862.282603547</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="inlineStr"/>
     </row>
     <row r="475">
@@ -16446,7 +17024,7 @@
         <v>2655778.911703547</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16479,7 +17057,7 @@
         <v>2564056.074903547</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16677,7 +17255,7 @@
         <v>2678076.416903547</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16710,7 +17288,7 @@
         <v>2623781.178603548</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16743,7 +17321,7 @@
         <v>2635783.553903548</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16776,7 +17354,7 @@
         <v>2819260.277203548</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16809,7 +17387,7 @@
         <v>2892140.439827637</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16842,7 +17420,7 @@
         <v>2892140.439827637</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16875,7 +17453,7 @@
         <v>2822690.660027637</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16908,7 +17486,7 @@
         <v>2614662.687027637</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16941,7 +17519,7 @@
         <v>2652588.635027637</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16974,7 +17552,7 @@
         <v>3371933.981027637</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17007,7 +17585,7 @@
         <v>3097411.1034912</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17040,7 +17618,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17073,7 +17651,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17106,7 +17684,7 @@
         <v>3417070.421206584</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17139,7 +17717,7 @@
         <v>3492645.044406584</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17172,7 +17750,7 @@
         <v>3603189.419065768</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17205,7 +17783,7 @@
         <v>3596054.660365768</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17238,7 +17816,7 @@
         <v>3680682.39837427</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17271,7 +17849,7 @@
         <v>3662049.620274269</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17304,7 +17882,7 @@
         <v>3725886.681774269</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17337,7 +17915,7 @@
         <v>3870198.907165767</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17370,7 +17948,7 @@
         <v>3950941.504212661</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17403,7 +17981,7 @@
         <v>4234440.39971266</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17436,7 +18014,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17469,7 +18047,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17502,7 +18080,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17535,7 +18113,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17568,7 +18146,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17601,7 +18179,7 @@
         <v>3416227.962106587</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17634,7 +18212,7 @@
         <v>3024740.809806587</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17667,7 +18245,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17700,7 +18278,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17733,7 +18311,7 @@
         <v>2977149.883889652</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17766,7 +18344,7 @@
         <v>3015475.818389652</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17799,7 +18377,7 @@
         <v>3022030.060889652</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17832,7 +18410,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17865,7 +18443,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17898,7 +18476,7 @@
         <v>3018324.551006587</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17931,7 +18509,7 @@
         <v>3022496.228032394</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17964,7 +18542,7 @@
         <v>2931428.401432394</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17997,7 +18575,7 @@
         <v>2940022.064132394</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18030,7 +18608,7 @@
         <v>2939344.983232394</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18096,7 +18674,7 @@
         <v>2977846.621232394</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
